--- a/内田/進捗管理.xlsx
+++ b/内田/進捗管理.xlsx
@@ -10,9 +10,6 @@
     <sheet name="サンプル" sheetId="1" r:id="rId1"/>
     <sheet name="カレンダー" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Actual">(PeriodInActual*(#REF!&gt;0))*PeriodInPlan</definedName>
     <definedName name="ActualBeyond">PeriodInActual*(#REF!&gt;0)</definedName>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="68">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -163,10 +160,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プログラム</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>土</t>
   </si>
   <si>
@@ -195,6 +188,326 @@
     <t xml:space="preserve">17
 </t>
     <phoneticPr fontId="15"/>
+  </si>
+  <si>
+    <t>プロトタイプ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TPSカメラ視点</t>
+    <rPh sb="6" eb="8">
+      <t>シテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カメラ固定</t>
+    <rPh sb="3" eb="5">
+      <t>コテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鈴木</t>
+    <rPh sb="0" eb="2">
+      <t>スズキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>企画書</t>
+    <rPh sb="0" eb="3">
+      <t>キカクショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>草案書</t>
+    <rPh sb="0" eb="2">
+      <t>ソウアン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕様書に近いもの パワポ 全体イメージ</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>企画考案</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウアン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>企画に必要な最低限のもの</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>サイテイゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>課題</t>
+    <rPh sb="0" eb="2">
+      <t>カダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>素材</t>
+    <rPh sb="0" eb="2">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>企画書用</t>
+    <rPh sb="0" eb="3">
+      <t>キカクショ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>α版用</t>
+    <rPh sb="0" eb="2">
+      <t>アルファバン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>江部</t>
+    <rPh sb="0" eb="2">
+      <t>エベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>企1</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>企2</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プ1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プ2</t>
+  </si>
+  <si>
+    <t>プロトタイプ１</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロトタイプ２</t>
+  </si>
+  <si>
+    <t>企画で使うもの 絵など</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>素1</t>
+    <rPh sb="0" eb="1">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>素2</t>
+    <rPh sb="0" eb="1">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>草1</t>
+    <rPh sb="0" eb="1">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>草1素1</t>
+    <rPh sb="0" eb="1">
+      <t>クサ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内田</t>
+    <rPh sb="0" eb="2">
+      <t>ウチダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ギミック①</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一個必ず</t>
+    <rPh sb="0" eb="2">
+      <t>イッコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カナラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>早川　イ</t>
+    <rPh sb="0" eb="2">
+      <t>ハヤカワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>早川</t>
+    <rPh sb="0" eb="2">
+      <t>ハヤカワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>企3</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>企4</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ギミック②</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ギミックと敵一案</t>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチアン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>早川　内田
+湯田　イ</t>
+    <rPh sb="0" eb="2">
+      <t>ハヤカワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウチダ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ユダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ギミック③</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>α版で使うもの又は予定のもの全て</t>
+    <rPh sb="0" eb="2">
+      <t>アルファバン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>マタ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>早川　内田
+湯田　イ
+鈴木</t>
+    <rPh sb="0" eb="2">
+      <t>ハヤカワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ウチダ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ユダ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>スズキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>企5</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -204,7 +517,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -326,8 +639,16 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -348,6 +669,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
       </patternFill>
     </fill>
   </fills>
@@ -647,7 +978,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="458">
+  <cellStyleXfs count="460">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1112,8 +1443,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1236,29 +1573,42 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="457" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="457" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="457" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="457" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="457" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="457" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="55" fontId="13" fillId="0" borderId="0" xfId="457" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="457" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="55" fontId="13" fillId="0" borderId="0" xfId="457" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="457" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="457" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="457" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="457" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="457" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="456" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="459" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="459" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="458" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="458" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="458" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="459" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="458">
+  <cellStyles count="460">
+    <cellStyle name="アクセント 2" xfId="458" builtinId="33"/>
+    <cellStyle name="アクセント 3" xfId="459" builtinId="37"/>
     <cellStyle name="アクセント 5" xfId="455" builtinId="45"/>
     <cellStyle name="アクセント 6" xfId="456" builtinId="49"/>
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
@@ -1731,19 +2081,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ガントチャート.全体"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
   <a:themeElements>
@@ -2066,11 +2403,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O125"/>
+  <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="75" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="14.25"/>
@@ -2167,11 +2504,11 @@
     </row>
     <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="28" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
@@ -2185,16 +2522,30 @@
       <c r="O3" s="27"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="56">
+        <v>43888</v>
+      </c>
+      <c r="I4" s="56">
+        <v>43892</v>
+      </c>
+      <c r="J4" s="56">
+        <v>43888</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -2204,16 +2555,30 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="56">
+        <v>43888</v>
+      </c>
+      <c r="I5" s="56">
+        <v>43892</v>
+      </c>
+      <c r="J5" s="56">
+        <v>43888</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2319,7 +2684,7 @@
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="26"/>
@@ -2338,15 +2703,31 @@
     </row>
     <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="56">
+        <v>43888</v>
+      </c>
+      <c r="I12" s="56">
+        <v>43896</v>
+      </c>
+      <c r="J12" s="56">
+        <v>43888</v>
+      </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
@@ -2357,15 +2738,29 @@
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="56">
+        <v>43888</v>
+      </c>
+      <c r="I13" s="56">
+        <v>43896</v>
+      </c>
+      <c r="J13" s="56">
+        <v>43888</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2376,15 +2771,29 @@
     </row>
     <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="56">
+        <v>43889</v>
+      </c>
+      <c r="I14" s="56">
+        <v>43892</v>
+      </c>
+      <c r="J14" s="56">
+        <v>43889</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -2393,17 +2802,31 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:15" ht="30" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="56">
+        <v>43889</v>
+      </c>
+      <c r="I15" s="56">
+        <v>43897</v>
+      </c>
+      <c r="J15" s="56">
+        <v>43889</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2412,17 +2835,31 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:15" ht="39.950000000000003" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="56">
+        <v>43889</v>
+      </c>
+      <c r="I16" s="56">
+        <v>43904</v>
+      </c>
+      <c r="J16" s="56">
+        <v>43889</v>
+      </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -2438,17 +2875,15 @@
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="1"/>
@@ -2457,17 +2892,15 @@
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="O18" s="2"/>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="1"/>
@@ -2477,7 +2910,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="H19" s="56"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
@@ -2489,35 +2922,47 @@
       </c>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="A20" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="60"/>
     </row>
     <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="56">
+        <v>43887</v>
+      </c>
+      <c r="I21" s="56">
+        <v>43889</v>
+      </c>
+      <c r="J21" s="56">
+        <v>43887</v>
+      </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -2546,35 +2991,51 @@
       </c>
     </row>
     <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="2" t="s">
+      <c r="A23" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="57"/>
+      <c r="L23" s="57"/>
+      <c r="M23" s="57"/>
+      <c r="N23" s="57"/>
+      <c r="O23" s="58" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="56">
+        <v>43888</v>
+      </c>
+      <c r="I24" s="56">
+        <v>43896</v>
+      </c>
+      <c r="J24" s="56">
+        <v>43888</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -2585,15 +3046,27 @@
     </row>
     <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="56">
+        <v>43888</v>
+      </c>
+      <c r="I25" s="56">
+        <v>43896</v>
+      </c>
+      <c r="J25" s="56">
+        <v>43888</v>
+      </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -2612,7 +3085,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
+      <c r="J26" s="56"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -2960,7 +3433,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
       <c r="O44" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -2998,7 +3471,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
       <c r="O46" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3058,23 +3531,43 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
+    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="52" spans="1:15">
       <c r="H52"/>
@@ -3741,6 +4234,24 @@
       <c r="L125"/>
       <c r="M125"/>
       <c r="N125"/>
+    </row>
+    <row r="126" spans="8:14">
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+    </row>
+    <row r="127" spans="8:14">
+      <c r="H127"/>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3765,7 +4276,7 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
@@ -3778,37 +4289,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="47" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A1" s="49">
+      <c r="A1" s="53">
         <v>43862</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:7" s="43" customFormat="1" ht="32.1" customHeight="1" thickTop="1">
       <c r="A2" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="33" customFormat="1" ht="63.95" customHeight="1">
@@ -3861,7 +4372,7 @@
       <c r="E5" s="41">
         <v>13</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="51">
         <v>14</v>
       </c>
       <c r="G5" s="40">
@@ -3872,8 +4383,8 @@
       <c r="A6" s="42">
         <v>16</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>28</v>
+      <c r="B6" s="51" t="s">
+        <v>27</v>
       </c>
       <c r="C6" s="41">
         <v>18</v>
@@ -3884,7 +4395,7 @@
       <c r="E6" s="41">
         <v>20</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="51">
         <v>21</v>
       </c>
       <c r="G6" s="40">
@@ -3895,7 +4406,7 @@
       <c r="A7" s="36">
         <v>23</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="49">
         <v>24</v>
       </c>
       <c r="C7" s="35">
@@ -3916,37 +4427,37 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" thickTop="1"/>
     <row r="9" spans="1:7" s="47" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A9" s="49">
+      <c r="A9" s="53">
         <v>43891</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7" s="43" customFormat="1" ht="32.1" customHeight="1" thickTop="1">
       <c r="A10" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="33" customFormat="1" ht="63.95" customHeight="1">
@@ -3965,7 +4476,7 @@
       <c r="E11" s="41">
         <v>5</v>
       </c>
-      <c r="F11" s="53">
+      <c r="F11" s="51">
         <v>6</v>
       </c>
       <c r="G11" s="40">
@@ -4002,16 +4513,16 @@
       <c r="B13" s="41">
         <v>16</v>
       </c>
-      <c r="C13" s="53">
+      <c r="C13" s="51">
         <v>17</v>
       </c>
-      <c r="D13" s="53">
+      <c r="D13" s="51">
         <v>18</v>
       </c>
       <c r="E13" s="41">
         <v>19</v>
       </c>
-      <c r="F13" s="54">
+      <c r="F13" s="52">
         <v>20</v>
       </c>
       <c r="G13" s="40">
@@ -4058,37 +4569,37 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" thickTop="1"/>
     <row r="17" spans="1:7" s="47" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A17" s="49">
+      <c r="A17" s="53">
         <v>43922</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
     </row>
     <row r="18" spans="1:7" s="43" customFormat="1" ht="32.1" customHeight="1" thickTop="1">
       <c r="A18" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E18" s="45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F18" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="33" customFormat="1" ht="63.95" customHeight="1">
@@ -4101,7 +4612,7 @@
       <c r="E19" s="41">
         <v>2</v>
       </c>
-      <c r="F19" s="53">
+      <c r="F19" s="51">
         <v>3</v>
       </c>
       <c r="G19" s="40">
@@ -4112,7 +4623,7 @@
       <c r="A20" s="42">
         <v>5</v>
       </c>
-      <c r="B20" s="52">
+      <c r="B20" s="50">
         <v>6</v>
       </c>
       <c r="C20" s="41">
@@ -4187,48 +4698,48 @@
       <c r="C23" s="35">
         <v>28</v>
       </c>
-      <c r="D23" s="51">
+      <c r="D23" s="49">
         <v>29</v>
       </c>
       <c r="E23" s="35">
         <v>30</v>
       </c>
-      <c r="F23" s="50"/>
+      <c r="F23" s="48"/>
       <c r="G23" s="34"/>
     </row>
     <row r="24" spans="1:7" ht="14.25" thickTop="1"/>
     <row r="25" spans="1:7" s="47" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A25" s="49">
+      <c r="A25" s="53">
         <v>43952</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
     </row>
     <row r="26" spans="1:7" s="43" customFormat="1" ht="32.1" customHeight="1" thickTop="1">
       <c r="A26" s="46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E26" s="45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F26" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G26" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="33" customFormat="1" ht="63.95" customHeight="1">

--- a/内田/進捗管理.xlsx
+++ b/内田/進捗管理.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="102">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -84,13 +84,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>工数</t>
-    <rPh sb="0" eb="2">
-      <t>コウスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>メモ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -153,13 +146,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>未着手</t>
-    <rPh sb="0" eb="3">
-      <t>ミチャクシュ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>土</t>
   </si>
   <si>
@@ -190,10 +176,6 @@
     <phoneticPr fontId="15"/>
   </si>
   <si>
-    <t>プロトタイプ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>TPSカメラ視点</t>
     <rPh sb="6" eb="8">
       <t>シテン</t>
@@ -226,16 +208,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>草案書</t>
-    <rPh sb="0" eb="2">
-      <t>ソウアン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>仕様書に近いもの パワポ 全体イメージ</t>
     <rPh sb="0" eb="3">
       <t>シヨウショ</t>
@@ -249,29 +221,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>企画考案</t>
-    <rPh sb="0" eb="2">
-      <t>キカク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウアン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>企画に必要な最低限のもの</t>
-    <rPh sb="0" eb="2">
-      <t>キカク</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>サイテイゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>課題</t>
     <rPh sb="0" eb="2">
       <t>カダイ</t>
@@ -334,13 +283,6 @@
     <t>プ2</t>
   </si>
   <si>
-    <t>プロトタイプ１</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プロトタイプ２</t>
-  </si>
-  <si>
     <t>企画で使うもの 絵など</t>
     <rPh sb="0" eb="2">
       <t>キカク</t>
@@ -368,13 +310,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>草1</t>
-    <rPh sb="0" eb="1">
-      <t>クサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>草1素1</t>
     <rPh sb="0" eb="1">
       <t>クサ</t>
@@ -407,13 +342,6 @@
   </si>
   <si>
     <t>早川　イ</t>
-    <rPh sb="0" eb="2">
-      <t>ハヤカワ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>早川</t>
     <rPh sb="0" eb="2">
       <t>ハヤカワ</t>
     </rPh>
@@ -503,10 +431,348 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>企5</t>
+    <t>ゲームに必要ななもの</t>
+  </si>
+  <si>
+    <t>ゲームに必要ななもの</t>
+    <rPh sb="4" eb="6">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プ3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>簡易的なステージ</t>
+    <rPh sb="0" eb="2">
+      <t>カンイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TPSのカメラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロトタイプ1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロトタイプ2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">プレイヤーの移動  </t>
+    <rPh sb="6" eb="8">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> マッチを持った状態で油を出すとギミックが燃える条件</t>
+    <rPh sb="21" eb="22">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>経過時間</t>
+    <rPh sb="0" eb="2">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイムアタックのような感じで</t>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>油の使用量</t>
     <rPh sb="0" eb="1">
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シヨウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>素3</t>
+    <rPh sb="0" eb="1">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>油のメーター的な絵</t>
+    <rPh sb="0" eb="1">
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>舌を出してマッチを拾う</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>油を投げる　　　ギミック(木)についたら燃える処理</t>
+    <rPh sb="0" eb="1">
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
       <t>キ</t>
     </rPh>
+    <rPh sb="20" eb="21">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>物(マッチ)を拾う処理　　</t>
+    <rPh sb="0" eb="1">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>α1</t>
+  </si>
+  <si>
+    <t>α1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>α版</t>
+  </si>
+  <si>
+    <t>α版</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鈴木</t>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今のステージ1.5倍ぐらいの大きさにしてほしい</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>α版で使うもの</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>今のプレイヤーの動き＋進行方向に振り向いてほしいかな．．．
+プレイヤーをユニティーちゃんからカエルに変更しといてほしい</t>
+    <rPh sb="0" eb="1">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>書類</t>
+    <rPh sb="0" eb="2">
+      <t>ショルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>書1</t>
+    <rPh sb="0" eb="1">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>書2</t>
+    <rPh sb="0" eb="1">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>草案</t>
+    <rPh sb="0" eb="2">
+      <t>ソウアン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全画面フロー</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>α場のもととなるもの</t>
+    <rPh sb="1" eb="2">
+      <t>バ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロトタイプ3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これをもとに作っていく　イ・フォルダに更新済み</t>
+    <rPh sb="6" eb="7">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>湯田</t>
+    <rPh sb="0" eb="2">
+      <t>ユダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>後日説明</t>
+    <rPh sb="0" eb="2">
+      <t>ゴジツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未着手</t>
+    <rPh sb="0" eb="3">
+      <t>ミチャクシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>企画書</t>
+    <rPh sb="0" eb="2">
+      <t>キカク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ギミック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UNITYなど</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -682,7 +948,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -977,6 +1243,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="460">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1450,7 +1753,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1504,15 +1807,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="455" applyBorder="1" applyAlignment="1"/>
@@ -1588,12 +1882,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="457" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="55" fontId="13" fillId="0" borderId="0" xfId="457" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="457" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="456" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="459" applyBorder="1" applyAlignment="1"/>
@@ -1603,6 +1891,18 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="458" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="459" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="55" fontId="13" fillId="0" borderId="0" xfId="457" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="457" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2403,35 +2703,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O127"/>
+  <dimension ref="A1:N138"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.625" customWidth="1"/>
     <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
     <col min="6" max="6" width="59.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.25" style="20" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.375" style="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="20" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="5.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.625" style="21" customWidth="1"/>
     <col min="14" max="14" width="8.5" style="14" customWidth="1"/>
     <col min="15" max="15" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="8"/>
@@ -2446,35 +2746,31 @@
         <v>6</v>
       </c>
       <c r="K1" s="16"/>
-      <c r="L1" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="22"/>
-      <c r="N1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>2</v>
@@ -2491,610 +2787,664 @@
       <c r="K2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="L2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3"/>
+    </row>
+    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="56">
+        <v>28</v>
+      </c>
+      <c r="H4" s="51">
         <v>43888</v>
       </c>
-      <c r="I4" s="56">
+      <c r="I4" s="51">
         <v>43892</v>
       </c>
-      <c r="J4" s="56">
+      <c r="J4" s="51">
         <v>43888</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="K4" s="51">
+        <v>43892</v>
+      </c>
+      <c r="L4" s="62">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="56">
+        <v>29</v>
+      </c>
+      <c r="H5" s="51">
         <v>43888</v>
       </c>
-      <c r="I5" s="56">
+      <c r="I5" s="51">
         <v>43892</v>
       </c>
-      <c r="J5" s="56">
+      <c r="J5" s="51">
         <v>43888</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="K5" s="51">
+        <v>43892</v>
+      </c>
+      <c r="L5" s="62">
+        <v>1</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="51">
+        <v>43888</v>
+      </c>
+      <c r="I6" s="51">
+        <v>43892</v>
+      </c>
+      <c r="J6" s="51">
+        <v>43888</v>
+      </c>
+      <c r="K6" s="51">
+        <v>43892</v>
+      </c>
+      <c r="L6" s="62">
+        <v>1</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="51">
+        <v>43892</v>
+      </c>
+      <c r="I7" s="51">
+        <v>43904</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="M7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="51">
+        <v>43892</v>
+      </c>
+      <c r="I8" s="51">
+        <v>43904</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="M8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:14" ht="28.5">
+      <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="E9" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="64" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="51">
+        <v>43892</v>
+      </c>
+      <c r="I9" s="51">
+        <v>43904</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="M9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="E10" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="51">
+        <v>43892</v>
+      </c>
+      <c r="I10" s="51">
+        <v>43904</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-    </row>
-    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="1"/>
+      <c r="M10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="51">
+        <v>43888</v>
+      </c>
+      <c r="I11" s="51">
+        <v>43892</v>
+      </c>
+      <c r="J11" s="51">
+        <v>43888</v>
+      </c>
+      <c r="K11" s="51">
+        <v>43892</v>
+      </c>
+      <c r="L11" s="62">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>53</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="56">
-        <v>43888</v>
-      </c>
-      <c r="I12" s="56">
-        <v>43896</v>
-      </c>
-      <c r="J12" s="56">
-        <v>43888</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="H12" s="51">
+        <v>43892</v>
+      </c>
+      <c r="I12" s="51">
+        <v>43904</v>
+      </c>
+      <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="1"/>
+      <c r="M12" s="2"/>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="56">
-        <v>43888</v>
-      </c>
-      <c r="I13" s="56">
-        <v>43896</v>
-      </c>
-      <c r="J13" s="56">
-        <v>43888</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="H13" s="51">
+        <v>43892</v>
+      </c>
+      <c r="I13" s="51">
+        <v>43904</v>
+      </c>
+      <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M13" s="2"/>
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="56">
-        <v>43889</v>
-      </c>
-      <c r="I14" s="56">
-        <v>43892</v>
-      </c>
-      <c r="J14" s="56">
-        <v>43889</v>
-      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="30" customHeight="1">
+      <c r="M14" s="2"/>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="56">
-        <v>43889</v>
-      </c>
-      <c r="I15" s="56">
-        <v>43897</v>
-      </c>
-      <c r="J15" s="56">
-        <v>43889</v>
-      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="39.950000000000003" customHeight="1">
+      <c r="M15" s="2"/>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="63" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="56">
-        <v>43889</v>
-      </c>
-      <c r="I16" s="56">
-        <v>43904</v>
-      </c>
-      <c r="J16" s="56">
-        <v>43889</v>
-      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M16" s="2"/>
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="M17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="51">
+        <v>43888</v>
+      </c>
+      <c r="I19" s="51">
+        <v>43904</v>
+      </c>
+      <c r="J19" s="51">
+        <v>43888</v>
+      </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="60"/>
-    </row>
-    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="1"/>
+      <c r="M19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="51">
+        <v>43889</v>
+      </c>
+      <c r="I20" s="51">
+        <v>43892</v>
+      </c>
+      <c r="J20" s="51">
+        <v>43889</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:14" ht="30" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="B21" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="56">
-        <v>43887</v>
-      </c>
-      <c r="I21" s="56">
+        <v>51</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="51">
         <v>43889</v>
       </c>
-      <c r="J21" s="56">
-        <v>43887</v>
+      <c r="I21" s="51">
+        <v>43897</v>
+      </c>
+      <c r="J21" s="51">
+        <v>43889</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="M21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:14" ht="39.950000000000003" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="51">
+        <v>43889</v>
+      </c>
+      <c r="I22" s="51">
+        <v>43904</v>
+      </c>
+      <c r="J22" s="51">
+        <v>43889</v>
+      </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="62" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="58" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="2"/>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H24" s="56">
-        <v>43888</v>
-      </c>
-      <c r="I24" s="56">
-        <v>43896</v>
-      </c>
-      <c r="J24" s="56">
-        <v>43888</v>
-      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M24" s="2"/>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="56">
-        <v>43888</v>
-      </c>
-      <c r="I25" s="56">
-        <v>43896</v>
-      </c>
-      <c r="J25" s="56">
-        <v>43888</v>
-      </c>
+      <c r="G25" s="58"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M25" s="2"/>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="56"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M26" s="2"/>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3102,75 +3452,101 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="51"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+      <c r="M27" s="2"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="55"/>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="51">
+        <v>43887</v>
+      </c>
+      <c r="I29" s="51">
+        <v>43889</v>
+      </c>
+      <c r="J29" s="51">
+        <v>43887</v>
+      </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="L29" s="62">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N29"/>
+    </row>
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" s="51">
+        <v>43894</v>
+      </c>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3178,18 +3554,15 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M31" s="2"/>
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3197,18 +3570,15 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M32" s="2"/>
+      <c r="N32"/>
+    </row>
+    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3221,89 +3591,124 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M33" s="2"/>
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="53"/>
+      <c r="N34"/>
+    </row>
+    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H35" s="51">
+        <v>43888</v>
+      </c>
+      <c r="I35" s="51">
+        <v>43904</v>
+      </c>
+      <c r="J35" s="51">
+        <v>43888</v>
+      </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N35"/>
+    </row>
+    <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="51">
+        <v>43888</v>
+      </c>
+      <c r="I36" s="51">
+        <v>43896</v>
+      </c>
+      <c r="J36" s="51">
+        <v>43888</v>
+      </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N36"/>
+    </row>
+    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H37" s="51">
+        <v>43892</v>
+      </c>
+      <c r="I37" s="51">
+        <v>43904</v>
+      </c>
+      <c r="J37" s="51">
+        <v>43892</v>
+      </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N37"/>
+    </row>
+    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -3316,13 +3721,12 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N38"/>
+    </row>
+    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -3335,13 +3739,12 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N39"/>
+    </row>
+    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -3354,13 +3757,12 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N40"/>
+    </row>
+    <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -3373,13 +3775,12 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N41"/>
+    </row>
+    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -3392,13 +3793,12 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N42"/>
+    </row>
+    <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -3411,13 +3811,12 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N43"/>
+    </row>
+    <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3430,13 +3829,12 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N44"/>
+    </row>
+    <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3449,13 +3847,12 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N45"/>
+    </row>
+    <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3468,13 +3865,12 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N46"/>
+    </row>
+    <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -3487,13 +3883,12 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N47"/>
+    </row>
+    <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3506,13 +3901,12 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N48"/>
+    </row>
+    <row r="49" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -3525,13 +3919,12 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N49"/>
+    </row>
+    <row r="50" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -3544,13 +3937,12 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="M50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N50"/>
+    </row>
+    <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -3563,112 +3955,210 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
+      <c r="M51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N51"/>
+    </row>
+    <row r="52" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="N52"/>
     </row>
-    <row r="53" spans="1:15">
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
-      <c r="M53"/>
+    <row r="53" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="N53"/>
     </row>
-    <row r="54" spans="1:15">
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
+    <row r="54" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="N54"/>
     </row>
-    <row r="55" spans="1:15">
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
+    <row r="55" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="N55"/>
     </row>
-    <row r="56" spans="1:15">
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
+    <row r="56" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="N56"/>
     </row>
-    <row r="57" spans="1:15">
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57"/>
+    <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="N57"/>
     </row>
-    <row r="58" spans="1:15">
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
+    <row r="58" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="N58"/>
     </row>
-    <row r="59" spans="1:15">
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
+    <row r="59" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="N59"/>
     </row>
-    <row r="60" spans="1:15">
-      <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
+    <row r="60" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="N60"/>
     </row>
-    <row r="61" spans="1:15">
-      <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
+    <row r="61" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="N61"/>
     </row>
-    <row r="62" spans="1:15">
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
+    <row r="62" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="N62"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:14">
       <c r="H63"/>
       <c r="I63"/>
       <c r="J63"/>
@@ -3677,7 +4167,7 @@
       <c r="M63"/>
       <c r="N63"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:14">
       <c r="H64"/>
       <c r="I64"/>
       <c r="J64"/>
@@ -4252,6 +4742,105 @@
       <c r="L127"/>
       <c r="M127"/>
       <c r="N127"/>
+    </row>
+    <row r="128" spans="8:14">
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+    </row>
+    <row r="129" spans="8:14">
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+    </row>
+    <row r="130" spans="8:14">
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130"/>
+    </row>
+    <row r="131" spans="8:14">
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+    </row>
+    <row r="132" spans="8:14">
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="L132"/>
+      <c r="M132"/>
+      <c r="N132"/>
+    </row>
+    <row r="133" spans="8:14">
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+    </row>
+    <row r="134" spans="8:14">
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134"/>
+      <c r="K134"/>
+      <c r="L134"/>
+      <c r="M134"/>
+      <c r="N134"/>
+    </row>
+    <row r="135" spans="8:14">
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+    </row>
+    <row r="136" spans="8:14">
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+    </row>
+    <row r="137" spans="8:14">
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+    </row>
+    <row r="138" spans="8:14">
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -4282,581 +4871,581 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="32" customWidth="1"/>
-    <col min="2" max="6" width="12.625" style="30" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="31" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="30"/>
+    <col min="1" max="1" width="12.625" style="29" customWidth="1"/>
+    <col min="2" max="6" width="12.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="47" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A1" s="53">
+    <row r="1" spans="1:7" s="44" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
+      <c r="A1" s="59">
         <v>43862</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="2" spans="1:7" s="43" customFormat="1" ht="32.1" customHeight="1" thickTop="1">
-      <c r="A2" s="46" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+    </row>
+    <row r="2" spans="1:7" s="40" customFormat="1" ht="32.1" customHeight="1" thickTop="1">
+      <c r="A2" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
+      <c r="A3" s="39"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
+      <c r="A4" s="39">
+        <v>2</v>
+      </c>
+      <c r="B4" s="38">
+        <v>3</v>
+      </c>
+      <c r="C4" s="38">
+        <v>4</v>
+      </c>
+      <c r="D4" s="38">
+        <v>5</v>
+      </c>
+      <c r="E4" s="38">
+        <v>6</v>
+      </c>
+      <c r="F4" s="38">
+        <v>7</v>
+      </c>
+      <c r="G4" s="37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
+      <c r="A5" s="39">
+        <v>9</v>
+      </c>
+      <c r="B5" s="38">
+        <v>10</v>
+      </c>
+      <c r="C5" s="38">
+        <v>11</v>
+      </c>
+      <c r="D5" s="38">
+        <v>12</v>
+      </c>
+      <c r="E5" s="38">
+        <v>13</v>
+      </c>
+      <c r="F5" s="48">
+        <v>14</v>
+      </c>
+      <c r="G5" s="37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
+      <c r="A6" s="39">
+        <v>16</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="38">
+        <v>18</v>
+      </c>
+      <c r="D6" s="38">
+        <v>19</v>
+      </c>
+      <c r="E6" s="38">
+        <v>20</v>
+      </c>
+      <c r="F6" s="48">
+        <v>21</v>
+      </c>
+      <c r="G6" s="37">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1" thickBot="1">
+      <c r="A7" s="33">
+        <v>23</v>
+      </c>
+      <c r="B7" s="46">
+        <v>24</v>
+      </c>
+      <c r="C7" s="32">
+        <v>25</v>
+      </c>
+      <c r="D7" s="32">
         <v>26</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="E7" s="32">
+        <v>27</v>
+      </c>
+      <c r="F7" s="32">
+        <v>28</v>
+      </c>
+      <c r="G7" s="31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="14.25" thickTop="1"/>
+    <row r="9" spans="1:7" s="44" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
+      <c r="A9" s="59">
+        <v>43891</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+    </row>
+    <row r="10" spans="1:7" s="40" customFormat="1" ht="32.1" customHeight="1" thickTop="1">
+      <c r="A10" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
+      <c r="A11" s="39">
+        <v>1</v>
+      </c>
+      <c r="B11" s="38">
+        <v>2</v>
+      </c>
+      <c r="C11" s="38">
+        <v>3</v>
+      </c>
+      <c r="D11" s="38">
+        <v>4</v>
+      </c>
+      <c r="E11" s="38">
+        <v>5</v>
+      </c>
+      <c r="F11" s="48">
+        <v>6</v>
+      </c>
+      <c r="G11" s="37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
+      <c r="A12" s="39">
+        <v>8</v>
+      </c>
+      <c r="B12" s="38">
+        <v>9</v>
+      </c>
+      <c r="C12" s="38">
+        <v>10</v>
+      </c>
+      <c r="D12" s="38">
+        <v>11</v>
+      </c>
+      <c r="E12" s="38">
+        <v>12</v>
+      </c>
+      <c r="F12" s="38">
+        <v>13</v>
+      </c>
+      <c r="G12" s="37">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
+      <c r="A13" s="39">
+        <v>15</v>
+      </c>
+      <c r="B13" s="38">
+        <v>16</v>
+      </c>
+      <c r="C13" s="48">
+        <v>17</v>
+      </c>
+      <c r="D13" s="48">
+        <v>18</v>
+      </c>
+      <c r="E13" s="38">
+        <v>19</v>
+      </c>
+      <c r="F13" s="49">
+        <v>20</v>
+      </c>
+      <c r="G13" s="37">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
+      <c r="A14" s="39">
+        <v>22</v>
+      </c>
+      <c r="B14" s="38">
+        <v>23</v>
+      </c>
+      <c r="C14" s="38">
+        <v>24</v>
+      </c>
+      <c r="D14" s="38">
         <v>25</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="E14" s="38">
+        <v>26</v>
+      </c>
+      <c r="F14" s="38">
+        <v>27</v>
+      </c>
+      <c r="G14" s="37">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1" thickBot="1">
+      <c r="A15" s="33">
+        <v>29</v>
+      </c>
+      <c r="B15" s="32">
+        <v>30</v>
+      </c>
+      <c r="C15" s="32">
+        <v>31</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="1:7" ht="14.25" thickTop="1"/>
+    <row r="17" spans="1:7" s="44" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
+      <c r="A17" s="59">
+        <v>43922</v>
+      </c>
+      <c r="B17" s="60"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+    </row>
+    <row r="18" spans="1:7" s="40" customFormat="1" ht="32.1" customHeight="1" thickTop="1">
+      <c r="A18" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="B18" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="C18" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="D18" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="E18" s="42" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" s="33" customFormat="1" ht="63.95" customHeight="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="40">
+      <c r="F18" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
+      <c r="A19" s="39"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="33" customFormat="1" ht="63.95" customHeight="1">
-      <c r="A4" s="42">
+      <c r="E19" s="38">
         <v>2</v>
       </c>
-      <c r="B4" s="41">
+      <c r="F19" s="48">
         <v>3</v>
       </c>
-      <c r="C4" s="41">
+      <c r="G19" s="37">
         <v>4</v>
       </c>
-      <c r="D4" s="41">
+    </row>
+    <row r="20" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
+      <c r="A20" s="39">
         <v>5</v>
       </c>
-      <c r="E4" s="41">
+      <c r="B20" s="47">
         <v>6</v>
       </c>
-      <c r="F4" s="41">
+      <c r="C20" s="38">
         <v>7</v>
       </c>
-      <c r="G4" s="40">
+      <c r="D20" s="38">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="33" customFormat="1" ht="63.95" customHeight="1">
-      <c r="A5" s="42">
+      <c r="E20" s="38">
         <v>9</v>
       </c>
-      <c r="B5" s="41">
+      <c r="F20" s="38">
         <v>10</v>
       </c>
-      <c r="C5" s="41">
+      <c r="G20" s="37">
         <v>11</v>
       </c>
-      <c r="D5" s="41">
+    </row>
+    <row r="21" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
+      <c r="A21" s="39">
         <v>12</v>
       </c>
-      <c r="E5" s="41">
+      <c r="B21" s="38">
         <v>13</v>
       </c>
-      <c r="F5" s="51">
+      <c r="C21" s="38">
         <v>14</v>
       </c>
-      <c r="G5" s="40">
+      <c r="D21" s="38">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="33" customFormat="1" ht="63.95" customHeight="1">
-      <c r="A6" s="42">
+      <c r="E21" s="38">
         <v>16</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="F21" s="38">
+        <v>17</v>
+      </c>
+      <c r="G21" s="37">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
+      <c r="A22" s="39">
+        <v>19</v>
+      </c>
+      <c r="B22" s="38">
+        <v>20</v>
+      </c>
+      <c r="C22" s="38">
+        <v>21</v>
+      </c>
+      <c r="D22" s="38">
+        <v>22</v>
+      </c>
+      <c r="E22" s="38">
+        <v>23</v>
+      </c>
+      <c r="F22" s="38">
+        <v>24</v>
+      </c>
+      <c r="G22" s="37">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1" thickBot="1">
+      <c r="A23" s="33">
+        <v>26</v>
+      </c>
+      <c r="B23" s="32">
         <v>27</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C23" s="32">
+        <v>28</v>
+      </c>
+      <c r="D23" s="46">
+        <v>29</v>
+      </c>
+      <c r="E23" s="32">
+        <v>30</v>
+      </c>
+      <c r="F23" s="45"/>
+      <c r="G23" s="31"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.25" thickTop="1"/>
+    <row r="25" spans="1:7" s="44" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
+      <c r="A25" s="59">
+        <v>43952</v>
+      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+    </row>
+    <row r="26" spans="1:7" s="40" customFormat="1" ht="32.1" customHeight="1" thickTop="1">
+      <c r="A26" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="41">
+    </row>
+    <row r="27" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
+      <c r="A27" s="39"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38">
+        <v>1</v>
+      </c>
+      <c r="G27" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
+      <c r="A28" s="39">
+        <v>3</v>
+      </c>
+      <c r="B28" s="38">
+        <v>4</v>
+      </c>
+      <c r="C28" s="38">
+        <v>5</v>
+      </c>
+      <c r="D28" s="38">
+        <v>6</v>
+      </c>
+      <c r="E28" s="38">
+        <v>7</v>
+      </c>
+      <c r="F28" s="38">
+        <v>8</v>
+      </c>
+      <c r="G28" s="37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
+      <c r="A29" s="39">
+        <v>10</v>
+      </c>
+      <c r="B29" s="38">
+        <v>11</v>
+      </c>
+      <c r="C29" s="38">
+        <v>12</v>
+      </c>
+      <c r="D29" s="38">
+        <v>13</v>
+      </c>
+      <c r="E29" s="38">
+        <v>14</v>
+      </c>
+      <c r="F29" s="38">
+        <v>15</v>
+      </c>
+      <c r="G29" s="37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
+      <c r="A30" s="39">
+        <v>17</v>
+      </c>
+      <c r="B30" s="38">
+        <v>18</v>
+      </c>
+      <c r="C30" s="38">
         <v>19</v>
       </c>
-      <c r="E6" s="41">
+      <c r="D30" s="38">
         <v>20</v>
       </c>
-      <c r="F6" s="51">
+      <c r="E30" s="38">
         <v>21</v>
       </c>
-      <c r="G6" s="40">
+      <c r="F30" s="38">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" s="33" customFormat="1" ht="63.95" customHeight="1" thickBot="1">
-      <c r="A7" s="36">
+      <c r="G30" s="37">
         <v>23</v>
       </c>
-      <c r="B7" s="49">
+    </row>
+    <row r="31" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
+      <c r="A31" s="36">
         <v>24</v>
       </c>
-      <c r="C7" s="35">
+      <c r="B31" s="35">
         <v>25</v>
       </c>
-      <c r="D7" s="35">
+      <c r="C31" s="35">
         <v>26</v>
       </c>
-      <c r="E7" s="35">
+      <c r="D31" s="35">
         <v>27</v>
       </c>
-      <c r="F7" s="35">
+      <c r="E31" s="35">
         <v>28</v>
       </c>
-      <c r="G7" s="34">
+      <c r="F31" s="35">
         <v>29</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.25" thickTop="1"/>
-    <row r="9" spans="1:7" s="47" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A9" s="53">
-        <v>43891</v>
-      </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-    </row>
-    <row r="10" spans="1:7" s="43" customFormat="1" ht="32.1" customHeight="1" thickTop="1">
-      <c r="A10" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="33" customFormat="1" ht="63.95" customHeight="1">
-      <c r="A11" s="42">
-        <v>1</v>
-      </c>
-      <c r="B11" s="41">
-        <v>2</v>
-      </c>
-      <c r="C11" s="41">
-        <v>3</v>
-      </c>
-      <c r="D11" s="41">
-        <v>4</v>
-      </c>
-      <c r="E11" s="41">
-        <v>5</v>
-      </c>
-      <c r="F11" s="51">
-        <v>6</v>
-      </c>
-      <c r="G11" s="40">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="33" customFormat="1" ht="63.95" customHeight="1">
-      <c r="A12" s="42">
-        <v>8</v>
-      </c>
-      <c r="B12" s="41">
-        <v>9</v>
-      </c>
-      <c r="C12" s="41">
-        <v>10</v>
-      </c>
-      <c r="D12" s="41">
-        <v>11</v>
-      </c>
-      <c r="E12" s="41">
-        <v>12</v>
-      </c>
-      <c r="F12" s="41">
-        <v>13</v>
-      </c>
-      <c r="G12" s="40">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="33" customFormat="1" ht="63.95" customHeight="1">
-      <c r="A13" s="42">
-        <v>15</v>
-      </c>
-      <c r="B13" s="41">
-        <v>16</v>
-      </c>
-      <c r="C13" s="51">
-        <v>17</v>
-      </c>
-      <c r="D13" s="51">
-        <v>18</v>
-      </c>
-      <c r="E13" s="41">
-        <v>19</v>
-      </c>
-      <c r="F13" s="52">
-        <v>20</v>
-      </c>
-      <c r="G13" s="40">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="33" customFormat="1" ht="63.95" customHeight="1">
-      <c r="A14" s="42">
-        <v>22</v>
-      </c>
-      <c r="B14" s="41">
-        <v>23</v>
-      </c>
-      <c r="C14" s="41">
-        <v>24</v>
-      </c>
-      <c r="D14" s="41">
-        <v>25</v>
-      </c>
-      <c r="E14" s="41">
-        <v>26</v>
-      </c>
-      <c r="F14" s="41">
-        <v>27</v>
-      </c>
-      <c r="G14" s="40">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="33" customFormat="1" ht="63.95" customHeight="1" thickBot="1">
-      <c r="A15" s="36">
-        <v>29</v>
-      </c>
-      <c r="B15" s="35">
+      <c r="G31" s="34">
         <v>30</v>
       </c>
-      <c r="C15" s="35">
+    </row>
+    <row r="32" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1" thickBot="1">
+      <c r="A32" s="33">
         <v>31</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="34"/>
-    </row>
-    <row r="16" spans="1:7" ht="14.25" thickTop="1"/>
-    <row r="17" spans="1:7" s="47" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A17" s="53">
-        <v>43922</v>
-      </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-    </row>
-    <row r="18" spans="1:7" s="43" customFormat="1" ht="32.1" customHeight="1" thickTop="1">
-      <c r="A18" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="33" customFormat="1" ht="63.95" customHeight="1">
-      <c r="A19" s="42"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41">
-        <v>1</v>
-      </c>
-      <c r="E19" s="41">
-        <v>2</v>
-      </c>
-      <c r="F19" s="51">
-        <v>3</v>
-      </c>
-      <c r="G19" s="40">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="33" customFormat="1" ht="63.95" customHeight="1">
-      <c r="A20" s="42">
-        <v>5</v>
-      </c>
-      <c r="B20" s="50">
-        <v>6</v>
-      </c>
-      <c r="C20" s="41">
-        <v>7</v>
-      </c>
-      <c r="D20" s="41">
-        <v>8</v>
-      </c>
-      <c r="E20" s="41">
-        <v>9</v>
-      </c>
-      <c r="F20" s="41">
-        <v>10</v>
-      </c>
-      <c r="G20" s="40">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="33" customFormat="1" ht="63.95" customHeight="1">
-      <c r="A21" s="42">
-        <v>12</v>
-      </c>
-      <c r="B21" s="41">
-        <v>13</v>
-      </c>
-      <c r="C21" s="41">
-        <v>14</v>
-      </c>
-      <c r="D21" s="41">
-        <v>15</v>
-      </c>
-      <c r="E21" s="41">
-        <v>16</v>
-      </c>
-      <c r="F21" s="41">
-        <v>17</v>
-      </c>
-      <c r="G21" s="40">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="33" customFormat="1" ht="63.95" customHeight="1">
-      <c r="A22" s="42">
-        <v>19</v>
-      </c>
-      <c r="B22" s="41">
-        <v>20</v>
-      </c>
-      <c r="C22" s="41">
-        <v>21</v>
-      </c>
-      <c r="D22" s="41">
-        <v>22</v>
-      </c>
-      <c r="E22" s="41">
-        <v>23</v>
-      </c>
-      <c r="F22" s="41">
-        <v>24</v>
-      </c>
-      <c r="G22" s="40">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="33" customFormat="1" ht="63.95" customHeight="1" thickBot="1">
-      <c r="A23" s="36">
-        <v>26</v>
-      </c>
-      <c r="B23" s="35">
-        <v>27</v>
-      </c>
-      <c r="C23" s="35">
-        <v>28</v>
-      </c>
-      <c r="D23" s="49">
-        <v>29</v>
-      </c>
-      <c r="E23" s="35">
-        <v>30</v>
-      </c>
-      <c r="F23" s="48"/>
-      <c r="G23" s="34"/>
-    </row>
-    <row r="24" spans="1:7" ht="14.25" thickTop="1"/>
-    <row r="25" spans="1:7" s="47" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A25" s="53">
-        <v>43952</v>
-      </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-    </row>
-    <row r="26" spans="1:7" s="43" customFormat="1" ht="32.1" customHeight="1" thickTop="1">
-      <c r="A26" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G26" s="44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="33" customFormat="1" ht="63.95" customHeight="1">
-      <c r="A27" s="42"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41">
-        <v>1</v>
-      </c>
-      <c r="G27" s="40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="33" customFormat="1" ht="63.95" customHeight="1">
-      <c r="A28" s="42">
-        <v>3</v>
-      </c>
-      <c r="B28" s="41">
-        <v>4</v>
-      </c>
-      <c r="C28" s="41">
-        <v>5</v>
-      </c>
-      <c r="D28" s="41">
-        <v>6</v>
-      </c>
-      <c r="E28" s="41">
-        <v>7</v>
-      </c>
-      <c r="F28" s="41">
-        <v>8</v>
-      </c>
-      <c r="G28" s="40">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="33" customFormat="1" ht="63.95" customHeight="1">
-      <c r="A29" s="42">
-        <v>10</v>
-      </c>
-      <c r="B29" s="41">
-        <v>11</v>
-      </c>
-      <c r="C29" s="41">
-        <v>12</v>
-      </c>
-      <c r="D29" s="41">
-        <v>13</v>
-      </c>
-      <c r="E29" s="41">
-        <v>14</v>
-      </c>
-      <c r="F29" s="41">
-        <v>15</v>
-      </c>
-      <c r="G29" s="40">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="33" customFormat="1" ht="63.95" customHeight="1">
-      <c r="A30" s="42">
-        <v>17</v>
-      </c>
-      <c r="B30" s="41">
-        <v>18</v>
-      </c>
-      <c r="C30" s="41">
-        <v>19</v>
-      </c>
-      <c r="D30" s="41">
-        <v>20</v>
-      </c>
-      <c r="E30" s="41">
-        <v>21</v>
-      </c>
-      <c r="F30" s="41">
-        <v>22</v>
-      </c>
-      <c r="G30" s="40">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="33" customFormat="1" ht="63.95" customHeight="1">
-      <c r="A31" s="39">
-        <v>24</v>
-      </c>
-      <c r="B31" s="38">
-        <v>25</v>
-      </c>
-      <c r="C31" s="38">
-        <v>26</v>
-      </c>
-      <c r="D31" s="38">
-        <v>27</v>
-      </c>
-      <c r="E31" s="38">
-        <v>28</v>
-      </c>
-      <c r="F31" s="38">
-        <v>29</v>
-      </c>
-      <c r="G31" s="37">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="33" customFormat="1" ht="63.95" customHeight="1" thickBot="1">
-      <c r="A32" s="36">
-        <v>31</v>
-      </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="34"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="31"/>
     </row>
     <row r="33" ht="63.95" customHeight="1" thickTop="1"/>
   </sheetData>

--- a/内田/進捗管理.xlsx
+++ b/内田/進捗管理.xlsx
@@ -2,13 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micfu\OneDrive\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="6105" yWindow="435" windowWidth="25605" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="サンプル" sheetId="1" r:id="rId1"/>
-    <sheet name="カレンダー" sheetId="2" r:id="rId2"/>
+    <sheet name="進捗管理" sheetId="1" r:id="rId1"/>
+    <sheet name="α版で必要な素材まとめ" sheetId="3" r:id="rId2"/>
+    <sheet name="カレンダー" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Actual">(PeriodInActual*(#REF!&gt;0))*PeriodInPlan</definedName>
@@ -19,11 +25,11 @@
     <definedName name="PeriodInActual">#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!-1)</definedName>
     <definedName name="PeriodInPlan">#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!-1)</definedName>
     <definedName name="Plan">PeriodInPlan*(#REF!&gt;0)</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">サンプル!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">進捗管理!$1:$2</definedName>
     <definedName name="TitleRegion..BO60">#REF!</definedName>
     <definedName name="あ">(PeriodInActual*(#REF!&gt;0))*PeriodInPlan</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="119">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -228,13 +234,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>素材</t>
-    <rPh sb="0" eb="2">
-      <t>ソザイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>企画書用</t>
     <rPh sb="0" eb="3">
       <t>キカクショ</t>
@@ -283,19 +282,6 @@
     <t>プ2</t>
   </si>
   <si>
-    <t>企画で使うもの 絵など</t>
-    <rPh sb="0" eb="2">
-      <t>キカク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>エ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>素1</t>
     <rPh sb="0" eb="1">
       <t>ソ</t>
@@ -305,16 +291,6 @@
   <si>
     <t>素2</t>
     <rPh sb="0" eb="1">
-      <t>ソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>草1素1</t>
-    <rPh sb="0" eb="1">
-      <t>クサ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
       <t>ソ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -518,19 +494,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>油のメーター的な絵</t>
-    <rPh sb="0" eb="1">
-      <t>アブラ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>エ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>イ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -628,10 +591,6 @@
     <rPh sb="14" eb="15">
       <t>オオ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>イ</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -734,13 +693,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>湯田</t>
-    <rPh sb="0" eb="2">
-      <t>ユダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>後日説明</t>
     <rPh sb="0" eb="2">
       <t>ゴジツ</t>
@@ -773,6 +725,227 @@
   </si>
   <si>
     <t>UNITYなど</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>α版のものをスクショする感じ</t>
+    <rPh sb="1" eb="2">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕様書で使うもの　ゲーム画面とかになる予定</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕様書</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕様書の絵</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デザイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>α版</t>
+    <rPh sb="0" eb="2">
+      <t>アルファバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>企画書</t>
+    <rPh sb="0" eb="3">
+      <t>キカクショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>企5</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>企画書で使う簡易フロー</t>
+    <rPh sb="0" eb="3">
+      <t>キカクショ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>簡易フロー</t>
+    <rPh sb="0" eb="2">
+      <t>カンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内田</t>
+    <rPh sb="0" eb="2">
+      <t>ウチダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>未定</t>
+    <rPh sb="0" eb="2">
+      <t>ミテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>素材　デザイン</t>
+    <rPh sb="0" eb="2">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>草1素1企5</t>
+    <rPh sb="0" eb="1">
+      <t>クサ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>油のメーター残量的な絵</t>
+    <rPh sb="0" eb="1">
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ザンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>α版</t>
+    <rPh sb="0" eb="2">
+      <t>アルファバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>素4</t>
+    <rPh sb="0" eb="1">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>敵の停止する時間</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>時計みたいな時間アニメーション用に8枚　1枚描いたら見してほしい</t>
+    <rPh sb="0" eb="2">
+      <t>トケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>素5</t>
+    <rPh sb="0" eb="1">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カエル舌</t>
+    <rPh sb="3" eb="4">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カエルとは別にオブジェクトとして作ってほしい</t>
+    <rPh sb="5" eb="6">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>江部</t>
+    <rPh sb="0" eb="2">
+      <t>エベ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1893,17 +2066,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="55" fontId="13" fillId="0" borderId="0" xfId="457" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="457" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="460">
@@ -2381,6 +2554,256 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="361950"/>
+          <a:ext cx="10972800" cy="3438525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill flip="none" rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="48000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="97000"/>
+                <a:lumOff val="3000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>〇プレイヤー</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・カエル・油・舌</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>〇オブジェクト</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・地面・背景に置くもの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>木や草</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・枠となる柵等</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>〇謎・ギミック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・マッチ・燃える予定の草・蛇</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>〇</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>UI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>等</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・経過時間・油残量・敵の停止時間・やられた回数</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ホワイト">
   <a:themeElements>
@@ -2703,11 +3126,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N138"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="75" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="14.25"/>
@@ -2794,7 +3218,7 @@
     </row>
     <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="25" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
@@ -2815,12 +3239,12 @@
         <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
@@ -2838,11 +3262,11 @@
       <c r="K4" s="51">
         <v>43892</v>
       </c>
-      <c r="L4" s="62">
+      <c r="L4" s="60">
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N4"/>
     </row>
@@ -2851,12 +3275,12 @@
         <v>27</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
@@ -2874,31 +3298,31 @@
       <c r="K5" s="51">
         <v>43892</v>
       </c>
-      <c r="L5" s="62">
+      <c r="L5" s="60">
         <v>1</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N5"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H6" s="51">
         <v>43888</v>
@@ -2912,33 +3336,33 @@
       <c r="K6" s="51">
         <v>43892</v>
       </c>
-      <c r="L6" s="62">
+      <c r="L6" s="60">
         <v>1</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N6"/>
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H7" s="51">
         <v>43892</v>
@@ -2956,23 +3380,23 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H8" s="51">
         <v>43892</v>
@@ -2990,23 +3414,23 @@
     </row>
     <row r="9" spans="1:14" ht="28.5">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="F9" s="64" t="s">
-        <v>86</v>
+      <c r="E9" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>81</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H9" s="51">
         <v>43892</v>
@@ -3024,23 +3448,23 @@
     </row>
     <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="63" t="s">
-        <v>83</v>
+      <c r="E10" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="61" t="s">
+        <v>79</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H10" s="51">
         <v>43892</v>
@@ -3058,21 +3482,21 @@
     </row>
     <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H11" s="51">
         <v>43888</v>
@@ -3086,33 +3510,33 @@
       <c r="K11" s="51">
         <v>43892</v>
       </c>
-      <c r="L11" s="62">
+      <c r="L11" s="60">
         <v>1</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N11"/>
     </row>
     <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H12" s="51">
         <v>43892</v>
@@ -3128,23 +3552,23 @@
     </row>
     <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H13" s="51">
         <v>43892</v>
@@ -3244,14 +3668,14 @@
     </row>
     <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>30</v>
@@ -3260,7 +3684,7 @@
         <v>31</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H19" s="51">
         <v>43888</v>
@@ -3280,21 +3704,21 @@
     </row>
     <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H20" s="51">
         <v>43889</v>
@@ -3314,21 +3738,21 @@
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G21" s="58" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H21" s="51">
         <v>43889</v>
@@ -3348,21 +3772,21 @@
     </row>
     <row r="22" spans="1:14" ht="39.950000000000003" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G22" s="58" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H22" s="51">
         <v>43889</v>
@@ -3381,14 +3805,26 @@
       <c r="N22"/>
     </row>
     <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>104</v>
+      </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="51"/>
+      <c r="G23" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="H23" s="51">
+        <v>43894</v>
+      </c>
       <c r="I23" s="51"/>
       <c r="J23" s="51"/>
       <c r="K23" s="1"/>
@@ -3462,7 +3898,7 @@
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="56" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B28" s="54"/>
       <c r="C28" s="54"/>
@@ -3480,13 +3916,13 @@
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
@@ -3506,43 +3942,41 @@
         <v>43887</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="62">
+      <c r="L29" s="60">
         <v>1</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N29"/>
     </row>
     <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H30" s="51">
-        <v>43894</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="H30" s="51"/>
       <c r="I30" s="51"/>
       <c r="J30" s="51"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="N30"/>
     </row>
@@ -3596,7 +4030,7 @@
     </row>
     <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="57" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="B34" s="52"/>
       <c r="C34" s="52"/>
@@ -3613,30 +4047,28 @@
       <c r="N34"/>
     </row>
     <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="B35" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="H35" s="51">
         <v>43888</v>
       </c>
-      <c r="I35" s="51">
-        <v>43904</v>
-      </c>
-      <c r="J35" s="51">
-        <v>43888</v>
-      </c>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="2" t="s">
@@ -3645,28 +4077,30 @@
       <c r="N35"/>
     </row>
     <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="B36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="H36" s="51">
-        <v>43888</v>
-      </c>
-      <c r="I36" s="51">
-        <v>43896</v>
-      </c>
-      <c r="J36" s="51">
-        <v>43888</v>
-      </c>
+        <v>43892</v>
+      </c>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="2" t="s">
@@ -3675,32 +4109,30 @@
       <c r="N36"/>
     </row>
     <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="B37" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="H37" s="51">
         <v>43892</v>
       </c>
-      <c r="I37" s="51">
-        <v>43904</v>
-      </c>
-      <c r="J37" s="51">
-        <v>43892</v>
-      </c>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="2" t="s">
@@ -3709,13 +4141,23 @@
       <c r="N37"/>
     </row>
     <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="A38" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>113</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -3727,13 +4169,23 @@
       <c r="N38"/>
     </row>
     <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="A39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>116</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -4859,7 +5311,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3">
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -4878,15 +5347,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="44" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A1" s="59">
+      <c r="A1" s="63">
         <v>43862</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
     </row>
     <row r="2" spans="1:7" s="40" customFormat="1" ht="32.1" customHeight="1" thickTop="1">
       <c r="A2" s="43" t="s">
@@ -5016,15 +5485,15 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" thickTop="1"/>
     <row r="9" spans="1:7" s="44" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A9" s="59">
+      <c r="A9" s="63">
         <v>43891</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
     </row>
     <row r="10" spans="1:7" s="40" customFormat="1" ht="32.1" customHeight="1" thickTop="1">
       <c r="A10" s="43" t="s">
@@ -5158,15 +5627,15 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" thickTop="1"/>
     <row r="17" spans="1:7" s="44" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A17" s="59">
+      <c r="A17" s="63">
         <v>43922</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
     </row>
     <row r="18" spans="1:7" s="40" customFormat="1" ht="32.1" customHeight="1" thickTop="1">
       <c r="A18" s="43" t="s">
@@ -5298,15 +5767,15 @@
     </row>
     <row r="24" spans="1:7" ht="14.25" thickTop="1"/>
     <row r="25" spans="1:7" s="44" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A25" s="59">
+      <c r="A25" s="63">
         <v>43952</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
     </row>
     <row r="26" spans="1:7" s="40" customFormat="1" ht="32.1" customHeight="1" thickTop="1">
       <c r="A26" s="43" t="s">

--- a/内田/進捗管理.xlsx
+++ b/内田/進捗管理.xlsx
@@ -9,24 +9,36 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="435" windowWidth="25605" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="6105" yWindow="435" windowWidth="25605" windowHeight="19020" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="進捗管理" sheetId="1" r:id="rId1"/>
-    <sheet name="α版で必要な素材まとめ" sheetId="3" r:id="rId2"/>
+    <sheet name="3月進捗管理" sheetId="1" r:id="rId1"/>
+    <sheet name="4月進捗管理 " sheetId="4" r:id="rId2"/>
     <sheet name="カレンダー" sheetId="2" r:id="rId3"/>
+    <sheet name="α版で必要な素材まとめ" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="Actual" localSheetId="1">('4月進捗管理 '!PeriodInActual*(#REF!&gt;0))*'4月進捗管理 '!PeriodInPlan</definedName>
     <definedName name="Actual">(PeriodInActual*(#REF!&gt;0))*PeriodInPlan</definedName>
+    <definedName name="ActualBeyond" localSheetId="1">'4月進捗管理 '!PeriodInActual*(#REF!&gt;0)</definedName>
     <definedName name="ActualBeyond">PeriodInActual*(#REF!&gt;0)</definedName>
+    <definedName name="PercentComplete" localSheetId="1">'4月進捗管理 '!PercentCompleteBeyond*'4月進捗管理 '!PeriodInPlan</definedName>
     <definedName name="PercentComplete">PercentCompleteBeyond*PeriodInPlan</definedName>
+    <definedName name="PercentCompleteBeyond" localSheetId="1">(#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!)*(#REF!&gt;0))*((#REF!&lt;(INT(#REF!+#REF!*#REF!)))+(#REF!=#REF!))*(#REF!&gt;0)</definedName>
     <definedName name="PercentCompleteBeyond">(#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!)*(#REF!&gt;0))*((#REF!&lt;(INT(#REF!+#REF!*#REF!)))+(#REF!=#REF!))*(#REF!&gt;0)</definedName>
+    <definedName name="period_selected" localSheetId="1">#REF!</definedName>
     <definedName name="period_selected">#REF!</definedName>
+    <definedName name="PeriodInActual" localSheetId="1">#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!-1)</definedName>
     <definedName name="PeriodInActual">#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!-1)</definedName>
+    <definedName name="PeriodInPlan" localSheetId="1">#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!-1)</definedName>
     <definedName name="PeriodInPlan">#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!-1)</definedName>
+    <definedName name="Plan" localSheetId="1">'4月進捗管理 '!PeriodInPlan*(#REF!&gt;0)</definedName>
     <definedName name="Plan">PeriodInPlan*(#REF!&gt;0)</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">進捗管理!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'3月進捗管理'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'4月進捗管理 '!$1:$2</definedName>
+    <definedName name="TitleRegion..BO60" localSheetId="1">#REF!</definedName>
     <definedName name="TitleRegion..BO60">#REF!</definedName>
+    <definedName name="あ" localSheetId="1">('4月進捗管理 '!PeriodInActual*(#REF!&gt;0))*'4月進捗管理 '!PeriodInPlan</definedName>
     <definedName name="あ">(PeriodInActual*(#REF!&gt;0))*PeriodInPlan</definedName>
   </definedNames>
   <calcPr calcId="140000"/>
@@ -39,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="174">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -431,10 +443,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>TPSのカメラ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>プロトタイプ1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -450,16 +458,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve"> マッチを持った状態で油を出すとギミックが燃える条件</t>
-    <rPh sb="21" eb="22">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>経過時間</t>
     <rPh sb="0" eb="2">
       <t>ケイカ</t>
@@ -470,13 +468,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>タイムアタックのような感じで</t>
-    <rPh sb="11" eb="12">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>油の使用量</t>
     <rPh sb="0" eb="1">
       <t>アブラ</t>
@@ -507,25 +498,6 @@
     </rPh>
     <rPh sb="9" eb="10">
       <t>ヒロ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>油を投げる　　　ギミック(木)についたら燃える処理</t>
-    <rPh sb="0" eb="1">
-      <t>アブラ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ショリ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -693,16 +665,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>後日説明</t>
-    <rPh sb="0" eb="2">
-      <t>ゴジツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>未着手</t>
     <rPh sb="0" eb="3">
       <t>ミチャクシュ</t>
@@ -925,13 +887,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>カエル舌</t>
-    <rPh sb="3" eb="4">
-      <t>シタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>カエルとは別にオブジェクトとして作ってほしい</t>
     <rPh sb="5" eb="6">
       <t>ベツ</t>
@@ -945,6 +900,607 @@
     <t>江部</t>
     <rPh sb="0" eb="2">
       <t>エベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Osaka－等幅"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>締め切り</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Osaka－等幅"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12
+ギミック考案
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Osaka－等幅"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>江部の残り作業</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>コウアン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>エベ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ス１</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージ作成及びギミック</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最低１つ。図で概要実装例等</t>
+    <rPh sb="0" eb="2">
+      <t>サイテイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガイヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デ1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カエルの舌</t>
+    <rPh sb="4" eb="5">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>物を拾うためのもの</t>
+    <rPh sb="0" eb="1">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ねお</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>宮内</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤウチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>蛇のモデル
+アニメーション</t>
+    <rPh sb="0" eb="1">
+      <t>ヘビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デ2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>油</t>
+    <rPh sb="0" eb="1">
+      <t>アブラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デ3</t>
+  </si>
+  <si>
+    <t>仕様書に書いてあると思う。でタスク内容のところに仕様書のリンク
+張ったのですぐページ移行できるようにしといた👍</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>イコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水っぽくなくていいていう話だったはず笑</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ハナシ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ワライ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕様書.xlsx</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>油を投げる　　　</t>
+    <rPh sb="0" eb="1">
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ADモデル次第</t>
+    <rPh sb="5" eb="7">
+      <t>シダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TPSのカメラ(ズーム)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鈴木・イ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイムアタックのような感じでだんだん増える</t>
+    <rPh sb="11" eb="12">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>油のメーター次第</t>
+    <rPh sb="0" eb="1">
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無期限</t>
+    <rPh sb="0" eb="3">
+      <t>ムキゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>17
+β版〆切</t>
+    <rPh sb="4" eb="5">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シメキリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>26
+カメラと
+油残量と
+ギミック期日</t>
+    <rPh sb="8" eb="9">
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ザンリョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キジツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3
+UI実装</t>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ギミック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ギ1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>現状燃やす箱3種歯車蒸発電気</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハグルマ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウハツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>デンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>取り敢えず今週まで。増やすかも。</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コンシュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内田響矢湯田</t>
+    <rPh sb="0" eb="2">
+      <t>ウチダ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ユダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カメラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>油の残量等々</t>
+    <rPh sb="0" eb="1">
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ザンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ナドナド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユ1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユ2</t>
+  </si>
+  <si>
+    <t>カメラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UI実装</t>
+    <rPh sb="2" eb="4">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユ3</t>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム内UIの実装</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カエル舌(仮)</t>
+    <rPh sb="3" eb="4">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕様書</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>企6</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ADに説明するよう</t>
+    <rPh sb="3" eb="5">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>素3をのちに入れて完成四月の頭用</t>
+    <rPh sb="0" eb="1">
+      <t>ソ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シガツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタマ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>後日説明、来月に繰り越し</t>
+    <rPh sb="0" eb="2">
+      <t>ゴジツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ライゲツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>三月に書いているものと一緒</t>
+    <rPh sb="0" eb="2">
+      <t>サンガツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イッショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>素3</t>
+    <rPh sb="0" eb="1">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>順調</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕1</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>油系統アイテムリザルトの説明</t>
+    <rPh sb="0" eb="1">
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ケイトウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>素１</t>
+    <rPh sb="0" eb="1">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕様書に入れる絵</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕様書用の絵</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内田</t>
+    <rPh sb="0" eb="2">
+      <t>ウチダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>簡易フロー</t>
+    <rPh sb="0" eb="2">
+      <t>カンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>適当に流れがつかみやすいように作っといただけ。全画面は後日。</t>
+    <rPh sb="0" eb="2">
+      <t>テキトウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ゼンガメン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゴジツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -956,7 +1512,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1081,6 +1637,21 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Osaka－等幅"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1454,7 +2025,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="460">
+  <cellStyleXfs count="461">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1925,8 +2496,9 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -2072,14 +2644,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="457" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="460" applyBorder="1"/>
     <xf numFmtId="55" fontId="13" fillId="0" borderId="0" xfId="457" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="457" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="457" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="460">
+  <cellStyles count="461">
     <cellStyle name="アクセント 2" xfId="458" builtinId="33"/>
     <cellStyle name="アクセント 3" xfId="459" builtinId="37"/>
     <cellStyle name="アクセント 5" xfId="455" builtinId="45"/>
@@ -2311,6 +2893,7 @@
     <cellStyle name="ハイパーリンク" xfId="449" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="451" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="460" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="457"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
@@ -3129,9 +3712,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N138"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="75" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="14.25"/>
@@ -3218,7 +3801,7 @@
     </row>
     <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="25" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
@@ -3244,7 +3827,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
@@ -3266,7 +3849,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N4"/>
     </row>
@@ -3280,7 +3863,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
@@ -3302,13 +3885,13 @@
         <v>1</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N5"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>56</v>
@@ -3316,13 +3899,13 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H6" s="51">
         <v>43888</v>
@@ -3340,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N6"/>
     </row>
@@ -3349,20 +3932,20 @@
         <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H7" s="51">
         <v>43892</v>
@@ -3370,8 +3953,12 @@
       <c r="I7" s="51">
         <v>43904</v>
       </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="J7" s="51">
+        <v>43958</v>
+      </c>
+      <c r="K7" s="51">
+        <v>43960</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="2" t="s">
         <v>15</v>
@@ -3383,20 +3970,20 @@
         <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H8" s="51">
         <v>43892</v>
@@ -3404,11 +3991,15 @@
       <c r="I8" s="51">
         <v>43904</v>
       </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="J8" s="51">
+        <v>43892</v>
+      </c>
+      <c r="K8" s="51">
+        <v>43936</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="2" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="N8"/>
     </row>
@@ -3417,20 +4008,20 @@
         <v>55</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="59" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H9" s="51">
         <v>43892</v>
@@ -3438,11 +4029,17 @@
       <c r="I9" s="51">
         <v>43904</v>
       </c>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="J9" s="51">
+        <v>43892</v>
+      </c>
+      <c r="K9" s="51">
+        <v>43936</v>
+      </c>
+      <c r="L9" s="60">
+        <v>1</v>
+      </c>
       <c r="M9" s="2" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="N9"/>
     </row>
@@ -3451,20 +4048,20 @@
         <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="59" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F10" s="61" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H10" s="51">
         <v>43892</v>
@@ -3472,11 +4069,17 @@
       <c r="I10" s="51">
         <v>43904</v>
       </c>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="J10" s="51">
+        <v>43892</v>
+      </c>
+      <c r="K10" s="51">
+        <v>43936</v>
+      </c>
+      <c r="L10" s="60">
+        <v>1</v>
+      </c>
       <c r="M10" s="2" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="N10"/>
     </row>
@@ -3485,18 +4088,18 @@
         <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="H11" s="51">
         <v>43888</v>
@@ -3508,13 +4111,13 @@
         <v>43888</v>
       </c>
       <c r="K11" s="51">
-        <v>43892</v>
+        <v>43933</v>
       </c>
       <c r="L11" s="60">
         <v>1</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N11"/>
     </row>
@@ -3523,20 +4126,20 @@
         <v>54</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H12" s="51">
         <v>43892</v>
@@ -3544,9 +4147,13 @@
       <c r="I12" s="51">
         <v>43904</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="J12" s="51">
+        <v>43892</v>
+      </c>
       <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
+      <c r="L12" s="60">
+        <v>0.2</v>
+      </c>
       <c r="M12" s="2"/>
       <c r="N12"/>
     </row>
@@ -3555,20 +4162,22 @@
         <v>54</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="G13" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H13" s="51">
         <v>43892</v>
@@ -3576,7 +4185,9 @@
       <c r="I13" s="51">
         <v>43904</v>
       </c>
-      <c r="J13" s="1"/>
+      <c r="J13" s="51">
+        <v>43892</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="2"/>
@@ -3668,14 +4279,14 @@
     </row>
     <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>30</v>
@@ -3695,16 +4306,20 @@
       <c r="J19" s="51">
         <v>43888</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="K19" s="51">
+        <v>43904</v>
+      </c>
+      <c r="L19" s="60">
+        <v>1</v>
+      </c>
       <c r="M19" s="2" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="N19"/>
     </row>
     <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>37</v>
@@ -3729,16 +4344,20 @@
       <c r="J20" s="51">
         <v>43889</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="K20" s="51">
+        <v>43904</v>
+      </c>
+      <c r="L20" s="60">
+        <v>1</v>
+      </c>
       <c r="M20" s="2" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="N20"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>46</v>
@@ -3763,16 +4382,20 @@
       <c r="J21" s="51">
         <v>43889</v>
       </c>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="K21" s="51">
+        <v>43904</v>
+      </c>
+      <c r="L21" s="60">
+        <v>1</v>
+      </c>
       <c r="M21" s="2" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="N21"/>
     </row>
     <row r="22" spans="1:14" ht="39.950000000000003" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>47</v>
@@ -3797,55 +4420,91 @@
       <c r="J22" s="51">
         <v>43889</v>
       </c>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="K22" s="51">
+        <v>43904</v>
+      </c>
+      <c r="L22" s="60">
+        <v>1</v>
+      </c>
       <c r="M22" s="2" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="N22"/>
     </row>
     <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="58" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H23" s="51">
         <v>43894</v>
       </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="2"/>
+      <c r="I23" s="51">
+        <v>43944</v>
+      </c>
+      <c r="J23" s="51">
+        <v>43922</v>
+      </c>
+      <c r="K23" s="51">
+        <v>43944</v>
+      </c>
+      <c r="L23" s="60">
+        <v>1</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="N23"/>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="2"/>
+      <c r="F24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G24" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="H24" s="51">
+        <v>43903</v>
+      </c>
+      <c r="I24" s="51">
+        <v>43923</v>
+      </c>
+      <c r="J24" s="51">
+        <v>43903</v>
+      </c>
+      <c r="K24" s="51">
+        <v>43923</v>
+      </c>
+      <c r="L24" s="60">
+        <v>1</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="N24"/>
     </row>
     <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1">
@@ -3898,7 +4557,7 @@
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="56" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B28" s="54"/>
       <c r="C28" s="54"/>
@@ -3916,13 +4575,13 @@
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
@@ -3946,29 +4605,29 @@
         <v>1</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N29"/>
     </row>
     <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>91</v>
+        <v>161</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H30" s="51"/>
       <c r="I30" s="51"/>
@@ -3976,7 +4635,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="N30"/>
     </row>
@@ -4030,7 +4689,7 @@
     </row>
     <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="57" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B34" s="52"/>
       <c r="C34" s="52"/>
@@ -4048,7 +4707,7 @@
     </row>
     <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>40</v>
@@ -4059,17 +4718,23 @@
         <v>33</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H35" s="51">
         <v>43888</v>
       </c>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="1"/>
+      <c r="I35" s="51">
+        <v>43933</v>
+      </c>
+      <c r="J35" s="51">
+        <v>43888</v>
+      </c>
+      <c r="K35" s="51">
+        <v>43933</v>
+      </c>
       <c r="L35" s="1"/>
       <c r="M35" s="2" t="s">
         <v>15</v>
@@ -4078,20 +4743,20 @@
     </row>
     <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>35</v>
@@ -4099,41 +4764,55 @@
       <c r="H36" s="51">
         <v>43892</v>
       </c>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+      <c r="I36" s="51">
+        <v>43933</v>
+      </c>
+      <c r="J36" s="51">
+        <v>43892</v>
+      </c>
+      <c r="K36" s="51">
+        <v>43940</v>
+      </c>
+      <c r="L36" s="60">
+        <v>1</v>
+      </c>
       <c r="M36" s="2" t="s">
-        <v>15</v>
+        <v>156</v>
       </c>
       <c r="N36"/>
     </row>
     <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H37" s="51">
         <v>43892</v>
       </c>
-      <c r="I37" s="51"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="1"/>
+      <c r="I37" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="J37" s="51">
+        <v>43892</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="L37" s="1"/>
       <c r="M37" s="2" t="s">
         <v>15</v>
@@ -4142,57 +4821,73 @@
     </row>
     <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="H38" s="51">
+        <v>43892</v>
+      </c>
+      <c r="I38" s="51">
+        <v>43933</v>
+      </c>
+      <c r="J38" s="51">
+        <v>43892</v>
+      </c>
+      <c r="K38" s="51">
+        <v>43940</v>
+      </c>
       <c r="L38" s="1"/>
       <c r="M38" s="2" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="N38"/>
     </row>
     <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
+        <v>112</v>
+      </c>
+      <c r="H39" s="51">
+        <v>43892</v>
+      </c>
+      <c r="I39" s="51">
+        <v>43933</v>
+      </c>
+      <c r="J39" s="51">
+        <v>43892</v>
+      </c>
+      <c r="K39" s="51">
+        <v>43933</v>
+      </c>
       <c r="L39" s="1"/>
       <c r="M39" s="2" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="N39"/>
     </row>
@@ -5311,18 +6006,1943 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:N138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="75" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="59.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.625" style="21" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="14" customWidth="1"/>
+    <col min="15" max="15" width="8.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3"/>
+    </row>
+    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="51">
+        <v>43940</v>
+      </c>
+      <c r="I4" s="51">
+        <v>43947</v>
+      </c>
+      <c r="J4" s="51">
+        <v>43940</v>
+      </c>
+      <c r="K4" s="51"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="2"/>
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="51">
+        <v>43940</v>
+      </c>
+      <c r="I5" s="51">
+        <v>43947</v>
+      </c>
+      <c r="J5" s="51">
+        <v>43940</v>
+      </c>
+      <c r="K5" s="51"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="22"/>
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="51">
+        <v>43940</v>
+      </c>
+      <c r="I6" s="51">
+        <v>43954</v>
+      </c>
+      <c r="J6" s="51">
+        <v>43940</v>
+      </c>
+      <c r="K6" s="51"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="22"/>
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="2"/>
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="2"/>
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="2"/>
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="2"/>
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="2"/>
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="2"/>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="2"/>
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="2"/>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="2"/>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="2"/>
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="2"/>
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H19" s="51">
+        <v>43922</v>
+      </c>
+      <c r="I19" s="51">
+        <v>43945</v>
+      </c>
+      <c r="J19" s="51">
+        <v>43922</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="2"/>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="51">
+        <v>43940</v>
+      </c>
+      <c r="I20" s="51">
+        <v>43947</v>
+      </c>
+      <c r="J20" s="51">
+        <v>43940</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="2"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="2"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="2"/>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="2"/>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="2"/>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="2"/>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="2"/>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="2"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="55"/>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H29" s="51">
+        <v>43931</v>
+      </c>
+      <c r="I29" s="51">
+        <v>43934</v>
+      </c>
+      <c r="J29" s="51">
+        <v>43931</v>
+      </c>
+      <c r="K29" s="51">
+        <v>43934</v>
+      </c>
+      <c r="L29" s="60">
+        <v>1</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N29"/>
+    </row>
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" s="51">
+        <v>43944</v>
+      </c>
+      <c r="I30" s="51">
+        <v>43947</v>
+      </c>
+      <c r="J30" s="51">
+        <v>43944</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="2"/>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="2"/>
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="2"/>
+      <c r="N32"/>
+    </row>
+    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="2"/>
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="53"/>
+      <c r="N34"/>
+    </row>
+    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" s="51">
+        <v>43924</v>
+      </c>
+      <c r="I35" s="51">
+        <v>43958</v>
+      </c>
+      <c r="J35" s="51">
+        <v>43924</v>
+      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N35"/>
+    </row>
+    <row r="36" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A36" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H36" s="51">
+        <v>43924</v>
+      </c>
+      <c r="I36" s="51">
+        <v>43958</v>
+      </c>
+      <c r="J36" s="51">
+        <v>43924</v>
+      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N36"/>
+    </row>
+    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="51">
+        <v>43924</v>
+      </c>
+      <c r="I37" s="51">
+        <v>43958</v>
+      </c>
+      <c r="J37" s="51">
+        <v>43924</v>
+      </c>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="N37"/>
+    </row>
+    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H38" s="51">
+        <v>43931</v>
+      </c>
+      <c r="I38" s="51">
+        <v>43935</v>
+      </c>
+      <c r="J38" s="51">
+        <v>43931</v>
+      </c>
+      <c r="K38" s="51">
+        <v>43935</v>
+      </c>
+      <c r="L38" s="60">
+        <v>1</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N38"/>
+    </row>
+    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="2"/>
+      <c r="N39"/>
+    </row>
+    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="2"/>
+      <c r="N40"/>
+    </row>
+    <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="2"/>
+      <c r="N41"/>
+    </row>
+    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="2"/>
+      <c r="N42"/>
+    </row>
+    <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="2"/>
+      <c r="N43"/>
+    </row>
+    <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="2"/>
+      <c r="N44"/>
+    </row>
+    <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="2"/>
+      <c r="N45"/>
+    </row>
+    <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="2"/>
+      <c r="N46"/>
+    </row>
+    <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="2"/>
+      <c r="N47"/>
+    </row>
+    <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="2"/>
+      <c r="N48"/>
+    </row>
+    <row r="49" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="2"/>
+      <c r="N49"/>
+    </row>
+    <row r="50" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="2"/>
+      <c r="N50"/>
+    </row>
+    <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="2"/>
+      <c r="N51"/>
+    </row>
+    <row r="52" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="2"/>
+      <c r="N52"/>
+    </row>
+    <row r="53" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="2"/>
+      <c r="N53"/>
+    </row>
+    <row r="54" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="2"/>
+      <c r="N54"/>
+    </row>
+    <row r="55" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="2"/>
+      <c r="N55"/>
+    </row>
+    <row r="56" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="2"/>
+      <c r="N56"/>
+    </row>
+    <row r="57" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="2"/>
+      <c r="N57"/>
+    </row>
+    <row r="58" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="2"/>
+      <c r="N58"/>
+    </row>
+    <row r="59" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="2"/>
+      <c r="N59"/>
+    </row>
+    <row r="60" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="2"/>
+      <c r="N60"/>
+    </row>
+    <row r="61" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="2"/>
+      <c r="N61"/>
+    </row>
+    <row r="62" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="2"/>
+      <c r="N62"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+    </row>
+    <row r="65" spans="8:14">
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+    </row>
+    <row r="66" spans="8:14">
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+    </row>
+    <row r="67" spans="8:14">
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+    </row>
+    <row r="68" spans="8:14">
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+    </row>
+    <row r="69" spans="8:14">
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+    </row>
+    <row r="70" spans="8:14">
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+    </row>
+    <row r="71" spans="8:14">
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+    </row>
+    <row r="72" spans="8:14">
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+    </row>
+    <row r="73" spans="8:14">
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+    </row>
+    <row r="74" spans="8:14">
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+    </row>
+    <row r="75" spans="8:14">
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+    </row>
+    <row r="76" spans="8:14">
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+    </row>
+    <row r="77" spans="8:14">
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+    </row>
+    <row r="78" spans="8:14">
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+    </row>
+    <row r="79" spans="8:14">
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+    </row>
+    <row r="80" spans="8:14">
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+    </row>
+    <row r="81" spans="8:14">
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+    </row>
+    <row r="82" spans="8:14">
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+    </row>
+    <row r="83" spans="8:14">
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+    </row>
+    <row r="84" spans="8:14">
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+    </row>
+    <row r="85" spans="8:14">
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+    </row>
+    <row r="86" spans="8:14">
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+    </row>
+    <row r="87" spans="8:14">
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+    </row>
+    <row r="88" spans="8:14">
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+    </row>
+    <row r="89" spans="8:14">
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+    </row>
+    <row r="90" spans="8:14">
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+    </row>
+    <row r="91" spans="8:14">
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+    </row>
+    <row r="92" spans="8:14">
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+    </row>
+    <row r="93" spans="8:14">
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+    </row>
+    <row r="94" spans="8:14">
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+    </row>
+    <row r="95" spans="8:14">
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+    </row>
+    <row r="96" spans="8:14">
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+    </row>
+    <row r="97" spans="8:14">
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+    </row>
+    <row r="98" spans="8:14">
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+    </row>
+    <row r="99" spans="8:14">
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+    </row>
+    <row r="100" spans="8:14">
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+    </row>
+    <row r="101" spans="8:14">
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+    </row>
+    <row r="102" spans="8:14">
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+    </row>
+    <row r="103" spans="8:14">
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+    </row>
+    <row r="104" spans="8:14">
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+    </row>
+    <row r="105" spans="8:14">
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+    </row>
+    <row r="106" spans="8:14">
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+    </row>
+    <row r="107" spans="8:14">
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+    </row>
+    <row r="108" spans="8:14">
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+    </row>
+    <row r="109" spans="8:14">
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+    </row>
+    <row r="110" spans="8:14">
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+    </row>
+    <row r="111" spans="8:14">
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+    </row>
+    <row r="112" spans="8:14">
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+    </row>
+    <row r="113" spans="8:14">
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+    </row>
+    <row r="114" spans="8:14">
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+    </row>
+    <row r="115" spans="8:14">
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+    </row>
+    <row r="116" spans="8:14">
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+    </row>
+    <row r="117" spans="8:14">
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+    </row>
+    <row r="118" spans="8:14">
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+    </row>
+    <row r="119" spans="8:14">
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+    </row>
+    <row r="120" spans="8:14">
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+    </row>
+    <row r="121" spans="8:14">
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+    </row>
+    <row r="122" spans="8:14">
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+    </row>
+    <row r="123" spans="8:14">
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+    </row>
+    <row r="124" spans="8:14">
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+    </row>
+    <row r="125" spans="8:14">
+      <c r="H125"/>
+      <c r="I125"/>
+      <c r="J125"/>
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125"/>
+      <c r="N125"/>
+    </row>
+    <row r="126" spans="8:14">
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+    </row>
+    <row r="127" spans="8:14">
+      <c r="H127"/>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
+    </row>
+    <row r="128" spans="8:14">
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+    </row>
+    <row r="129" spans="8:14">
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+    </row>
+    <row r="130" spans="8:14">
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130"/>
+    </row>
+    <row r="131" spans="8:14">
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+    </row>
+    <row r="132" spans="8:14">
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="L132"/>
+      <c r="M132"/>
+      <c r="N132"/>
+    </row>
+    <row r="133" spans="8:14">
+      <c r="H133"/>
+      <c r="I133"/>
+      <c r="J133"/>
+      <c r="K133"/>
+      <c r="L133"/>
+      <c r="M133"/>
+      <c r="N133"/>
+    </row>
+    <row r="134" spans="8:14">
+      <c r="H134"/>
+      <c r="I134"/>
+      <c r="J134"/>
+      <c r="K134"/>
+      <c r="L134"/>
+      <c r="M134"/>
+      <c r="N134"/>
+    </row>
+    <row r="135" spans="8:14">
+      <c r="H135"/>
+      <c r="I135"/>
+      <c r="J135"/>
+      <c r="K135"/>
+      <c r="L135"/>
+      <c r="M135"/>
+      <c r="N135"/>
+    </row>
+    <row r="136" spans="8:14">
+      <c r="H136"/>
+      <c r="I136"/>
+      <c r="J136"/>
+      <c r="K136"/>
+      <c r="L136"/>
+      <c r="M136"/>
+      <c r="N136"/>
+    </row>
+    <row r="137" spans="8:14">
+      <c r="H137"/>
+      <c r="I137"/>
+      <c r="J137"/>
+      <c r="K137"/>
+      <c r="L137"/>
+      <c r="M137"/>
+      <c r="N137"/>
+    </row>
+    <row r="138" spans="8:14">
+      <c r="H138"/>
+      <c r="I138"/>
+      <c r="J138"/>
+      <c r="K138"/>
+      <c r="L138"/>
+      <c r="M138"/>
+      <c r="N138"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink ref="C36" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="15" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
@@ -5334,8 +7954,8 @@
   </sheetPr>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView showRuler="0" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5347,15 +7967,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="44" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A1" s="63">
+      <c r="A1" s="66">
         <v>43862</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
     </row>
     <row r="2" spans="1:7" s="40" customFormat="1" ht="32.1" customHeight="1" thickTop="1">
       <c r="A2" s="43" t="s">
@@ -5485,15 +8105,15 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" thickTop="1"/>
     <row r="9" spans="1:7" s="44" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A9" s="63">
+      <c r="A9" s="66">
         <v>43891</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
     </row>
     <row r="10" spans="1:7" s="40" customFormat="1" ht="32.1" customHeight="1" thickTop="1">
       <c r="A10" s="43" t="s">
@@ -5627,15 +8247,15 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" thickTop="1"/>
     <row r="17" spans="1:7" s="44" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A17" s="63">
+      <c r="A17" s="66">
         <v>43922</v>
       </c>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
     </row>
     <row r="18" spans="1:7" s="40" customFormat="1" ht="32.1" customHeight="1" thickTop="1">
       <c r="A18" s="43" t="s">
@@ -5701,8 +8321,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
-      <c r="A21" s="39">
-        <v>12</v>
+      <c r="A21" s="63" t="s">
+        <v>114</v>
       </c>
       <c r="B21" s="38">
         <v>13</v>
@@ -5747,8 +8367,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1" thickBot="1">
-      <c r="A23" s="33">
-        <v>26</v>
+      <c r="A23" s="68" t="s">
+        <v>139</v>
       </c>
       <c r="B23" s="32">
         <v>27</v>
@@ -5767,15 +8387,15 @@
     </row>
     <row r="24" spans="1:7" ht="14.25" thickTop="1"/>
     <row r="25" spans="1:7" s="44" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A25" s="63">
+      <c r="A25" s="66">
         <v>43952</v>
       </c>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
     </row>
     <row r="26" spans="1:7" s="40" customFormat="1" ht="32.1" customHeight="1" thickTop="1">
       <c r="A26" s="43" t="s">
@@ -5814,8 +8434,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
-      <c r="A28" s="39">
-        <v>3</v>
+      <c r="A28" s="63" t="s">
+        <v>140</v>
       </c>
       <c r="B28" s="38">
         <v>4</v>
@@ -5826,8 +8446,8 @@
       <c r="D28" s="38">
         <v>6</v>
       </c>
-      <c r="E28" s="38">
-        <v>7</v>
+      <c r="E28" s="48" t="s">
+        <v>113</v>
       </c>
       <c r="F28" s="38">
         <v>8</v>
@@ -5860,8 +8480,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
-      <c r="A30" s="39">
-        <v>17</v>
+      <c r="A30" s="63" t="s">
+        <v>138</v>
       </c>
       <c r="B30" s="38">
         <v>18</v>
@@ -5928,4 +8548,22 @@
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/内田/進捗管理.xlsx
+++ b/内田/進捗管理.xlsx
@@ -9,36 +9,62 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="435" windowWidth="25605" windowHeight="19020" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6105" yWindow="435" windowWidth="25605" windowHeight="19020" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="3月進捗管理" sheetId="1" r:id="rId1"/>
     <sheet name="4月進捗管理 " sheetId="4" r:id="rId2"/>
-    <sheet name="カレンダー" sheetId="2" r:id="rId3"/>
-    <sheet name="α版で必要な素材まとめ" sheetId="3" r:id="rId4"/>
+    <sheet name="5月の進捗管理" sheetId="5" r:id="rId3"/>
+    <sheet name="6月の進捗管理" sheetId="7" r:id="rId4"/>
+    <sheet name="カレンダー" sheetId="2" r:id="rId5"/>
+    <sheet name="α版で必要な素材まとめ" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="a" localSheetId="3">(#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!)*(#REF!&gt;0))*((#REF!&lt;(INT(#REF!+#REF!*#REF!)))+(#REF!=#REF!))*(#REF!&gt;0)</definedName>
+    <definedName name="a">(#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!)*(#REF!&gt;0))*((#REF!&lt;(INT(#REF!+#REF!*#REF!)))+(#REF!=#REF!))*(#REF!&gt;0)</definedName>
     <definedName name="Actual" localSheetId="1">('4月進捗管理 '!PeriodInActual*(#REF!&gt;0))*'4月進捗管理 '!PeriodInPlan</definedName>
+    <definedName name="Actual" localSheetId="2">('5月の進捗管理'!PeriodInActual*(#REF!&gt;0))*'5月の進捗管理'!PeriodInPlan</definedName>
+    <definedName name="Actual" localSheetId="3">('6月の進捗管理'!PeriodInActual*(#REF!&gt;0))*'6月の進捗管理'!PeriodInPlan</definedName>
     <definedName name="Actual">(PeriodInActual*(#REF!&gt;0))*PeriodInPlan</definedName>
     <definedName name="ActualBeyond" localSheetId="1">'4月進捗管理 '!PeriodInActual*(#REF!&gt;0)</definedName>
+    <definedName name="ActualBeyond" localSheetId="2">'5月の進捗管理'!PeriodInActual*(#REF!&gt;0)</definedName>
+    <definedName name="ActualBeyond" localSheetId="3">'6月の進捗管理'!PeriodInActual*(#REF!&gt;0)</definedName>
     <definedName name="ActualBeyond">PeriodInActual*(#REF!&gt;0)</definedName>
     <definedName name="PercentComplete" localSheetId="1">'4月進捗管理 '!PercentCompleteBeyond*'4月進捗管理 '!PeriodInPlan</definedName>
+    <definedName name="PercentComplete" localSheetId="2">'5月の進捗管理'!PercentCompleteBeyond*'5月の進捗管理'!PeriodInPlan</definedName>
+    <definedName name="PercentComplete" localSheetId="3">'6月の進捗管理'!PercentCompleteBeyond*'6月の進捗管理'!PeriodInPlan</definedName>
     <definedName name="PercentComplete">PercentCompleteBeyond*PeriodInPlan</definedName>
     <definedName name="PercentCompleteBeyond" localSheetId="1">(#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!)*(#REF!&gt;0))*((#REF!&lt;(INT(#REF!+#REF!*#REF!)))+(#REF!=#REF!))*(#REF!&gt;0)</definedName>
+    <definedName name="PercentCompleteBeyond" localSheetId="2">(#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!)*(#REF!&gt;0))*((#REF!&lt;(INT(#REF!+#REF!*#REF!)))+(#REF!=#REF!))*(#REF!&gt;0)</definedName>
+    <definedName name="PercentCompleteBeyond" localSheetId="3">(#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!)*(#REF!&gt;0))*((#REF!&lt;(INT(#REF!+#REF!*#REF!)))+(#REF!=#REF!))*(#REF!&gt;0)</definedName>
     <definedName name="PercentCompleteBeyond">(#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!)*(#REF!&gt;0))*((#REF!&lt;(INT(#REF!+#REF!*#REF!)))+(#REF!=#REF!))*(#REF!&gt;0)</definedName>
     <definedName name="period_selected" localSheetId="1">#REF!</definedName>
+    <definedName name="period_selected" localSheetId="2">#REF!</definedName>
+    <definedName name="period_selected" localSheetId="3">#REF!</definedName>
     <definedName name="period_selected">#REF!</definedName>
     <definedName name="PeriodInActual" localSheetId="1">#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!-1)</definedName>
+    <definedName name="PeriodInActual" localSheetId="2">#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!-1)</definedName>
+    <definedName name="PeriodInActual" localSheetId="3">#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!-1)</definedName>
     <definedName name="PeriodInActual">#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!-1)</definedName>
     <definedName name="PeriodInPlan" localSheetId="1">#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!-1)</definedName>
+    <definedName name="PeriodInPlan" localSheetId="2">#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!-1)</definedName>
+    <definedName name="PeriodInPlan" localSheetId="3">#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!-1)</definedName>
     <definedName name="PeriodInPlan">#REF!=MEDIAN(#REF!,#REF!,#REF!+#REF!-1)</definedName>
     <definedName name="Plan" localSheetId="1">'4月進捗管理 '!PeriodInPlan*(#REF!&gt;0)</definedName>
+    <definedName name="Plan" localSheetId="2">'5月の進捗管理'!PeriodInPlan*(#REF!&gt;0)</definedName>
+    <definedName name="Plan" localSheetId="3">'6月の進捗管理'!PeriodInPlan*(#REF!&gt;0)</definedName>
     <definedName name="Plan">PeriodInPlan*(#REF!&gt;0)</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'3月進捗管理'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'4月進捗管理 '!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'5月の進捗管理'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'6月の進捗管理'!$1:$2</definedName>
     <definedName name="TitleRegion..BO60" localSheetId="1">#REF!</definedName>
+    <definedName name="TitleRegion..BO60" localSheetId="2">#REF!</definedName>
+    <definedName name="TitleRegion..BO60" localSheetId="3">#REF!</definedName>
     <definedName name="TitleRegion..BO60">#REF!</definedName>
     <definedName name="あ" localSheetId="1">('4月進捗管理 '!PeriodInActual*(#REF!&gt;0))*'4月進捗管理 '!PeriodInPlan</definedName>
+    <definedName name="あ" localSheetId="2">('5月の進捗管理'!PeriodInActual*(#REF!&gt;0))*'5月の進捗管理'!PeriodInPlan</definedName>
+    <definedName name="あ" localSheetId="3">('6月の進捗管理'!PeriodInActual*(#REF!&gt;0))*'6月の進捗管理'!PeriodInPlan</definedName>
     <definedName name="あ">(PeriodInActual*(#REF!&gt;0))*PeriodInPlan</definedName>
   </definedNames>
   <calcPr calcId="140000"/>
@@ -51,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="263">
   <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
@@ -900,40 +926,6 @@
     <t>江部</t>
     <rPh sb="0" eb="2">
       <t>エベ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">7
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Osaka－等幅"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>締め切り</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Osaka－等幅"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1157,17 +1149,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>17
-β版〆切</t>
-    <rPh sb="4" eb="5">
-      <t>バン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シメキリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>26
 カメラと
 油残量と
@@ -1184,14 +1165,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>3
-UI実装</t>
-    <rPh sb="4" eb="6">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ギミック</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1241,22 +1214,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>内田響矢湯田</t>
-    <rPh sb="0" eb="2">
-      <t>ウチダ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヤ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ユダ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>カメラ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1401,20 +1358,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>素3</t>
-    <rPh sb="0" eb="1">
-      <t>ソ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>順調</t>
-    <rPh sb="0" eb="2">
-      <t>ジュンチョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>仕1</t>
     <rPh sb="0" eb="1">
       <t>シ</t>
@@ -1501,6 +1444,624 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>ゴジツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無期限</t>
+    <rPh sb="0" eb="3">
+      <t>ムキゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>素2</t>
+    <rPh sb="0" eb="1">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>江部</t>
+    <rPh sb="0" eb="2">
+      <t>エベ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>箱用の油効果時間を表すUI</t>
+    <rPh sb="0" eb="1">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>油効果のUI</t>
+    <rPh sb="0" eb="3">
+      <t>アブラコウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>箱とかが油かかった時のUI実装</t>
+    <rPh sb="0" eb="1">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3月素3</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鈴木</t>
+    <rPh sb="0" eb="2">
+      <t>スズキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユ5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユ4</t>
+  </si>
+  <si>
+    <t>ステージ持ち上げ</t>
+    <rPh sb="4" eb="5">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>歯車</t>
+    <rPh sb="0" eb="2">
+      <t>ハグルマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>歯車ギミック</t>
+    <rPh sb="0" eb="2">
+      <t>ハグルマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ス2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージ①</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>簡単な奴</t>
+    <rPh sb="0" eb="2">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヤツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージ②</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>湯田</t>
+    <rPh sb="0" eb="2">
+      <t>ユダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>滑らない箱使うやつね</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕2</t>
+    <rPh sb="0" eb="1">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル背景</t>
+    <rPh sb="4" eb="6">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージの見直したところの修正</t>
+    <rPh sb="5" eb="7">
+      <t>ミナオ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>蛇のモデル</t>
+    <rPh sb="0" eb="1">
+      <t>ヘビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">蛇のモデル
+</t>
+    <rPh sb="0" eb="1">
+      <t>ヘビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>微調整</t>
+    <rPh sb="0" eb="3">
+      <t>ビチョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UIの調整</t>
+    <rPh sb="3" eb="5">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UI1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイマーUI等</t>
+    <rPh sb="6" eb="7">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージ上下左右</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージの調整</t>
+    <rPh sb="5" eb="7">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鈴木</t>
+    <rPh sb="0" eb="2">
+      <t>スズキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージ③</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ス3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3.5ぐらいの</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イが代わりに代行したため予定オーバー</t>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ダイコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>歯車同様</t>
+    <rPh sb="0" eb="2">
+      <t>ハグルマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>湯田</t>
+    <rPh sb="0" eb="2">
+      <t>ユダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ス4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ス5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>内田</t>
+    <rPh sb="0" eb="2">
+      <t>ウチダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージ④</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージ⑤</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージ⑦</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ス6</t>
+  </si>
+  <si>
+    <t>内田　</t>
+    <rPh sb="0" eb="2">
+      <t>ウチダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>連動する箱</t>
+    <rPh sb="0" eb="2">
+      <t>レンドウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>湯田イ</t>
+    <rPh sb="0" eb="2">
+      <t>ユダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>箱の油状態の変異</t>
+    <rPh sb="0" eb="1">
+      <t>ハコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユ6</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユ7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユ8</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>箱</t>
+    <rPh sb="0" eb="1">
+      <t>ハコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>歯車</t>
+    <rPh sb="0" eb="2">
+      <t>ハグルマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユ9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージ配置</t>
+    <rPh sb="4" eb="6">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>動画提出</t>
+    <rPh sb="0" eb="2">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイシュツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユ10</t>
+  </si>
+  <si>
+    <t>ユ11</t>
+  </si>
+  <si>
+    <t>ユ12</t>
+  </si>
+  <si>
+    <t>油</t>
+    <rPh sb="0" eb="1">
+      <t>アブラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マテリアル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>油付き</t>
+    <rPh sb="0" eb="1">
+      <t>アブラ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>坂</t>
+    <rPh sb="0" eb="1">
+      <t>サカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>橋</t>
+    <rPh sb="0" eb="1">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フィールド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトルロゴ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>丸太</t>
+    <rPh sb="0" eb="2">
+      <t>マルタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>岩</t>
+    <rPh sb="0" eb="1">
+      <t>イワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>子ガエル</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>宮内石橋</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤウチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イシバシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FROGILと小さくフロギル</t>
+    <rPh sb="7" eb="8">
+      <t>チイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラインの動画を見て</t>
+    <rPh sb="4" eb="6">
+      <t>ドウガ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>丸い感じじゃなく四角っぱい形で</t>
+    <rPh sb="0" eb="1">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カタチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デ4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デ5</t>
+  </si>
+  <si>
+    <t>デ6</t>
+  </si>
+  <si>
+    <t>デ7</t>
+  </si>
+  <si>
+    <t>デ8</t>
+  </si>
+  <si>
+    <t>デ9</t>
+  </si>
+  <si>
+    <t>デ10</t>
+  </si>
+  <si>
+    <t>デ11</t>
+  </si>
+  <si>
+    <t>デ12</t>
+  </si>
+  <si>
+    <t>13 
+締め切り</t>
+    <rPh sb="4" eb="5">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2651,14 +3212,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="460" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="457" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="55" fontId="13" fillId="0" borderId="0" xfId="457" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="457" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="457" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="461">
@@ -3712,9 +4273,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N138"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="75" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="14.25"/>
@@ -3935,14 +4496,14 @@
         <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
         <v>70</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>71</v>
@@ -4091,7 +4652,7 @@
         <v>67</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
@@ -4099,7 +4660,7 @@
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H11" s="51">
         <v>43888</v>
@@ -4136,7 +4697,7 @@
         <v>69</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>72</v>
@@ -4174,7 +4735,7 @@
         <v>69</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>64</v>
@@ -4471,21 +5032,21 @@
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G24" s="58" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H24" s="51">
         <v>43903</v>
@@ -4600,7 +5161,9 @@
       <c r="J29" s="51">
         <v>43887</v>
       </c>
-      <c r="K29" s="1"/>
+      <c r="K29" s="51">
+        <v>43889</v>
+      </c>
       <c r="L29" s="60">
         <v>1</v>
       </c>
@@ -4624,7 +5187,7 @@
         <v>82</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>102</v>
@@ -4777,7 +5340,7 @@
         <v>1</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N36"/>
     </row>
@@ -4805,13 +5368,13 @@
         <v>43892</v>
       </c>
       <c r="I37" s="51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J37" s="51">
         <v>43892</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="2" t="s">
@@ -4863,7 +5426,7 @@
         <v>110</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -6008,9 +6571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N138"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="75" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K30" sqref="K30"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="75" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M7" sqref="M7:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="14.25"/>
@@ -6115,20 +6678,22 @@
     </row>
     <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="H4" s="51">
         <v>43940</v>
       </c>
@@ -6138,27 +6703,35 @@
       <c r="J4" s="51">
         <v>43940</v>
       </c>
-      <c r="K4" s="51"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="2"/>
+      <c r="K4" s="51">
+        <v>43951</v>
+      </c>
+      <c r="L4" s="60">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>168</v>
+      </c>
       <c r="N4"/>
     </row>
     <row r="5" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="H5" s="51">
         <v>43940</v>
       </c>
@@ -6168,29 +6741,37 @@
       <c r="J5" s="51">
         <v>43940</v>
       </c>
-      <c r="K5" s="51"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="22"/>
+      <c r="K5" s="51">
+        <v>43951</v>
+      </c>
+      <c r="L5" s="60">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="N5"/>
     </row>
     <row r="6" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="H6" s="51">
         <v>43940</v>
       </c>
@@ -6200,41 +6781,89 @@
       <c r="J6" s="51">
         <v>43940</v>
       </c>
-      <c r="K6" s="51"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="22"/>
+      <c r="K6" s="51">
+        <v>43954</v>
+      </c>
+      <c r="L6" s="60">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="N6"/>
     </row>
     <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="H7" s="51"/>
       <c r="I7" s="51"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="2"/>
+      <c r="K7" s="51">
+        <v>43965</v>
+      </c>
+      <c r="L7" s="60">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="N7"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="2"/>
+      <c r="E8" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H8" s="51">
+        <v>43951</v>
+      </c>
+      <c r="I8" s="51">
+        <v>43961</v>
+      </c>
+      <c r="J8" s="51">
+        <v>43951</v>
+      </c>
+      <c r="K8" s="51">
+        <v>43974</v>
+      </c>
+      <c r="L8" s="60">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>209</v>
+      </c>
       <c r="N8"/>
     </row>
     <row r="9" spans="1:14">
@@ -6401,18 +7030,18 @@
     </row>
     <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>42</v>
@@ -6426,28 +7055,34 @@
       <c r="J19" s="51">
         <v>43922</v>
       </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="2"/>
+      <c r="K19" s="51">
+        <v>43922</v>
+      </c>
+      <c r="L19" s="60">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="N19"/>
     </row>
     <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="H20" s="51">
         <v>43940</v>
@@ -6458,9 +7093,15 @@
       <c r="J20" s="51">
         <v>43940</v>
       </c>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="2"/>
+      <c r="K20" s="51">
+        <v>43947</v>
+      </c>
+      <c r="L20" s="60">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="N20"/>
     </row>
     <row r="21" spans="1:14">
@@ -6595,21 +7236,21 @@
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H29" s="51">
         <v>43931</v>
@@ -6627,23 +7268,23 @@
         <v>1</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N29"/>
     </row>
     <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H30" s="51">
         <v>43944</v>
@@ -6654,9 +7295,15 @@
       <c r="J30" s="51">
         <v>43944</v>
       </c>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="2"/>
+      <c r="K30" s="51">
+        <v>43951</v>
+      </c>
+      <c r="L30" s="60">
+        <v>1</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="N30"/>
     </row>
     <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1">
@@ -6727,21 +7374,21 @@
     </row>
     <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H35" s="51">
         <v>43924</v>
@@ -6752,32 +7399,36 @@
       <c r="J35" s="51">
         <v>43924</v>
       </c>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
+      <c r="K35" s="51">
+        <v>43958</v>
+      </c>
+      <c r="L35" s="60">
+        <v>1</v>
+      </c>
       <c r="M35" s="2" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="N35"/>
     </row>
     <row r="36" spans="1:14" ht="35.1" customHeight="1">
       <c r="A36" s="58" t="s">
+        <v>123</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="C36" s="65" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="64" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F36" s="58" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H36" s="51">
         <v>43924</v>
@@ -6788,25 +7439,29 @@
       <c r="J36" s="51">
         <v>43924</v>
       </c>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+      <c r="K36" s="51">
+        <v>43958</v>
+      </c>
+      <c r="L36" s="60">
+        <v>1</v>
+      </c>
       <c r="M36" s="2" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="N36"/>
     </row>
     <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="51">
@@ -6818,32 +7473,36 @@
       <c r="J37" s="51">
         <v>43924</v>
       </c>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
+      <c r="K37" s="51">
+        <v>43958</v>
+      </c>
+      <c r="L37" s="60">
+        <v>1</v>
+      </c>
       <c r="M37" s="2" t="s">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="N37"/>
     </row>
     <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H38" s="51">
         <v>43931</v>
@@ -6861,24 +7520,42 @@
         <v>1</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N38"/>
     </row>
     <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="2"/>
+      <c r="G39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H39" s="51">
+        <v>43951</v>
+      </c>
+      <c r="I39" s="51">
+        <v>43958</v>
+      </c>
+      <c r="J39" s="51">
+        <v>43951</v>
+      </c>
+      <c r="K39" s="51">
+        <v>43951</v>
+      </c>
+      <c r="L39" s="60">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="N39"/>
     </row>
     <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1">
@@ -7948,13 +8625,3493 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N132"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="75" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="59.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.625" style="21" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="14" customWidth="1"/>
+    <col min="15" max="15" width="8.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3"/>
+    </row>
+    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="51">
+        <v>43962</v>
+      </c>
+      <c r="I4" s="51">
+        <v>43965</v>
+      </c>
+      <c r="J4" s="51">
+        <v>43962</v>
+      </c>
+      <c r="K4" s="51">
+        <v>43966</v>
+      </c>
+      <c r="L4" s="60">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="H5" s="51">
+        <v>43951</v>
+      </c>
+      <c r="I5" s="51">
+        <v>43961</v>
+      </c>
+      <c r="J5" s="51">
+        <v>43951</v>
+      </c>
+      <c r="K5" s="51">
+        <v>43968</v>
+      </c>
+      <c r="L5" s="60">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="H6" s="51">
+        <v>43970</v>
+      </c>
+      <c r="I6" s="51">
+        <v>43972</v>
+      </c>
+      <c r="J6" s="51">
+        <v>43970</v>
+      </c>
+      <c r="K6" s="51">
+        <v>43974</v>
+      </c>
+      <c r="L6" s="60">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="H7" s="51">
+        <v>43971</v>
+      </c>
+      <c r="I7" s="51">
+        <v>43975</v>
+      </c>
+      <c r="J7" s="51">
+        <v>43971</v>
+      </c>
+      <c r="K7" s="51">
+        <v>43974</v>
+      </c>
+      <c r="L7" s="60">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H8" s="51">
+        <v>43977</v>
+      </c>
+      <c r="I8" s="51">
+        <v>43980</v>
+      </c>
+      <c r="J8" s="51">
+        <v>43977</v>
+      </c>
+      <c r="K8" s="51">
+        <v>43980</v>
+      </c>
+      <c r="L8" s="60">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51">
+        <v>43960</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="51">
+        <v>43960</v>
+      </c>
+      <c r="L9" s="60">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51">
+        <v>43967</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="51">
+        <v>43967</v>
+      </c>
+      <c r="L10" s="60">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="51">
+        <v>43974</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="51">
+        <v>43974</v>
+      </c>
+      <c r="L11" s="60">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="51">
+        <v>43980</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="51">
+        <v>43980</v>
+      </c>
+      <c r="L12" s="60">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="2"/>
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="2"/>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H16" s="51">
+        <v>43962</v>
+      </c>
+      <c r="I16" s="51">
+        <v>43961</v>
+      </c>
+      <c r="J16" s="51">
+        <v>43962</v>
+      </c>
+      <c r="K16" s="51">
+        <v>43967</v>
+      </c>
+      <c r="L16" s="60">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="H17" s="51">
+        <v>43955</v>
+      </c>
+      <c r="I17" s="51">
+        <v>43961</v>
+      </c>
+      <c r="J17" s="51">
+        <v>43955</v>
+      </c>
+      <c r="K17" s="51">
+        <v>43962</v>
+      </c>
+      <c r="L17" s="60">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G18" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="H18" s="51">
+        <v>43966</v>
+      </c>
+      <c r="I18" s="51">
+        <v>43976</v>
+      </c>
+      <c r="J18" s="51">
+        <v>43966</v>
+      </c>
+      <c r="K18" s="51">
+        <v>43976</v>
+      </c>
+      <c r="L18" s="60">
+        <v>1</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="H19" s="51">
+        <v>43966</v>
+      </c>
+      <c r="I19" s="51">
+        <v>43980</v>
+      </c>
+      <c r="J19" s="51">
+        <v>43966</v>
+      </c>
+      <c r="K19" s="51">
+        <v>43980</v>
+      </c>
+      <c r="L19" s="60">
+        <v>1</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="H20" s="51">
+        <v>43977</v>
+      </c>
+      <c r="I20" s="51">
+        <v>43980</v>
+      </c>
+      <c r="J20" s="51">
+        <v>43977</v>
+      </c>
+      <c r="K20" s="51">
+        <v>43980</v>
+      </c>
+      <c r="L20" s="60">
+        <v>1</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="58" t="s">
+        <v>222</v>
+      </c>
+      <c r="H21" s="51">
+        <v>43981</v>
+      </c>
+      <c r="I21" s="51">
+        <v>43981</v>
+      </c>
+      <c r="J21" s="51">
+        <v>43981</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="2"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G22" s="58" t="s">
+        <v>213</v>
+      </c>
+      <c r="H22" s="51">
+        <v>43980</v>
+      </c>
+      <c r="I22" s="51">
+        <v>43982</v>
+      </c>
+      <c r="J22" s="51">
+        <v>43980</v>
+      </c>
+      <c r="K22" s="51"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="2"/>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="2"/>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="2"/>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="2"/>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="55"/>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H27" s="51">
+        <v>43955</v>
+      </c>
+      <c r="I27" s="51">
+        <v>43961</v>
+      </c>
+      <c r="J27" s="51">
+        <v>43954</v>
+      </c>
+      <c r="K27" s="51">
+        <v>43963</v>
+      </c>
+      <c r="L27" s="60">
+        <v>1</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="51">
+        <v>43961</v>
+      </c>
+      <c r="I28" s="51">
+        <v>43967</v>
+      </c>
+      <c r="J28" s="51">
+        <v>43961</v>
+      </c>
+      <c r="K28" s="51">
+        <v>43967</v>
+      </c>
+      <c r="L28" s="60">
+        <v>1</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="2"/>
+      <c r="N29"/>
+    </row>
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="2"/>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="52"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="52"/>
+      <c r="K31" s="52"/>
+      <c r="L31" s="52"/>
+      <c r="M31" s="53"/>
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="1:14" ht="35.1" customHeight="1">
+      <c r="A32" s="58" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="64" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H32" s="51">
+        <v>43959</v>
+      </c>
+      <c r="I32" s="51">
+        <v>43962</v>
+      </c>
+      <c r="J32" s="51">
+        <v>43959</v>
+      </c>
+      <c r="K32" s="51">
+        <v>43962</v>
+      </c>
+      <c r="L32" s="60">
+        <v>1</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N32"/>
+    </row>
+    <row r="33" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="51">
+        <v>43959</v>
+      </c>
+      <c r="I33" s="51">
+        <v>43962</v>
+      </c>
+      <c r="J33" s="51">
+        <v>43959</v>
+      </c>
+      <c r="K33" s="51">
+        <v>43962</v>
+      </c>
+      <c r="L33" s="60">
+        <v>1</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="51">
+        <v>43968</v>
+      </c>
+      <c r="I34" s="51">
+        <v>43973</v>
+      </c>
+      <c r="J34" s="51">
+        <v>43968</v>
+      </c>
+      <c r="K34" s="51">
+        <v>43973</v>
+      </c>
+      <c r="L34" s="60">
+        <v>1</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N34"/>
+    </row>
+    <row r="35" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H35" s="51">
+        <v>43969</v>
+      </c>
+      <c r="I35" s="51">
+        <v>43973</v>
+      </c>
+      <c r="J35" s="51">
+        <v>43969</v>
+      </c>
+      <c r="K35" s="51">
+        <v>43974</v>
+      </c>
+      <c r="L35" s="60">
+        <v>1</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N35"/>
+    </row>
+    <row r="36" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H36" s="51">
+        <v>43969</v>
+      </c>
+      <c r="I36" s="51">
+        <v>43974</v>
+      </c>
+      <c r="J36" s="51">
+        <v>43969</v>
+      </c>
+      <c r="K36" s="51">
+        <v>43974</v>
+      </c>
+      <c r="L36" s="60">
+        <v>1</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N36"/>
+    </row>
+    <row r="37" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H37" s="51">
+        <v>43969</v>
+      </c>
+      <c r="I37" s="51">
+        <v>43971</v>
+      </c>
+      <c r="J37" s="51">
+        <v>43969</v>
+      </c>
+      <c r="K37" s="51">
+        <v>43971</v>
+      </c>
+      <c r="L37" s="60">
+        <v>1</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N37"/>
+    </row>
+    <row r="38" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H38" s="51">
+        <v>43969</v>
+      </c>
+      <c r="I38" s="51">
+        <v>43971</v>
+      </c>
+      <c r="J38" s="51">
+        <v>43969</v>
+      </c>
+      <c r="K38" s="51">
+        <v>43971</v>
+      </c>
+      <c r="L38" s="60">
+        <v>1</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N38"/>
+    </row>
+    <row r="39" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H39" s="51">
+        <v>43969</v>
+      </c>
+      <c r="I39" s="51">
+        <v>43974</v>
+      </c>
+      <c r="J39" s="51">
+        <v>43969</v>
+      </c>
+      <c r="K39" s="51">
+        <v>43974</v>
+      </c>
+      <c r="L39" s="60">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N39"/>
+    </row>
+    <row r="40" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H40" s="51">
+        <v>43978</v>
+      </c>
+      <c r="I40" s="51">
+        <v>43983</v>
+      </c>
+      <c r="J40" s="51">
+        <v>43978</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="2"/>
+      <c r="N40"/>
+    </row>
+    <row r="41" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H41" s="51">
+        <v>43978</v>
+      </c>
+      <c r="I41" s="51">
+        <v>43983</v>
+      </c>
+      <c r="J41" s="51">
+        <v>43978</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="2"/>
+      <c r="N41"/>
+    </row>
+    <row r="42" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H42" s="51">
+        <v>43978</v>
+      </c>
+      <c r="I42" s="51">
+        <v>43983</v>
+      </c>
+      <c r="J42" s="51">
+        <v>43978</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="2"/>
+      <c r="N42"/>
+    </row>
+    <row r="43" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H43" s="51">
+        <v>43978</v>
+      </c>
+      <c r="I43" s="51">
+        <v>43983</v>
+      </c>
+      <c r="J43" s="51">
+        <v>43978</v>
+      </c>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="2"/>
+      <c r="N43"/>
+    </row>
+    <row r="44" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H44" s="51">
+        <v>43978</v>
+      </c>
+      <c r="I44" s="51">
+        <v>43983</v>
+      </c>
+      <c r="J44" s="51">
+        <v>43978</v>
+      </c>
+      <c r="K44" s="51">
+        <v>43980</v>
+      </c>
+      <c r="L44" s="60">
+        <v>1</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="N44"/>
+    </row>
+    <row r="45" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="2"/>
+      <c r="N45"/>
+    </row>
+    <row r="46" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="2"/>
+      <c r="N46"/>
+    </row>
+    <row r="47" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="2"/>
+      <c r="N47"/>
+    </row>
+    <row r="48" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="2"/>
+      <c r="N48"/>
+    </row>
+    <row r="49" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="2"/>
+      <c r="N49"/>
+    </row>
+    <row r="50" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="2"/>
+      <c r="N50"/>
+    </row>
+    <row r="51" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="2"/>
+      <c r="N51"/>
+    </row>
+    <row r="52" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="2"/>
+      <c r="N52"/>
+    </row>
+    <row r="53" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="2"/>
+      <c r="N53"/>
+    </row>
+    <row r="54" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="2"/>
+      <c r="N54"/>
+    </row>
+    <row r="55" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="2"/>
+      <c r="N55"/>
+    </row>
+    <row r="56" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="2"/>
+      <c r="N56"/>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+    </row>
+    <row r="65" spans="8:14">
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+    </row>
+    <row r="66" spans="8:14">
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+    </row>
+    <row r="67" spans="8:14">
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+    </row>
+    <row r="68" spans="8:14">
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+    </row>
+    <row r="69" spans="8:14">
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+    </row>
+    <row r="70" spans="8:14">
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+    </row>
+    <row r="71" spans="8:14">
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+    </row>
+    <row r="72" spans="8:14">
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+    </row>
+    <row r="73" spans="8:14">
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+    </row>
+    <row r="74" spans="8:14">
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+    </row>
+    <row r="75" spans="8:14">
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+    </row>
+    <row r="76" spans="8:14">
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+    </row>
+    <row r="77" spans="8:14">
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+    </row>
+    <row r="78" spans="8:14">
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+    </row>
+    <row r="79" spans="8:14">
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+    </row>
+    <row r="80" spans="8:14">
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+    </row>
+    <row r="81" spans="8:14">
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+    </row>
+    <row r="82" spans="8:14">
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+    </row>
+    <row r="83" spans="8:14">
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+    </row>
+    <row r="84" spans="8:14">
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+    </row>
+    <row r="85" spans="8:14">
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+    </row>
+    <row r="86" spans="8:14">
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+    </row>
+    <row r="87" spans="8:14">
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+    </row>
+    <row r="88" spans="8:14">
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+    </row>
+    <row r="89" spans="8:14">
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+    </row>
+    <row r="90" spans="8:14">
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+    </row>
+    <row r="91" spans="8:14">
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+    </row>
+    <row r="92" spans="8:14">
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+    </row>
+    <row r="93" spans="8:14">
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+    </row>
+    <row r="94" spans="8:14">
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+    </row>
+    <row r="95" spans="8:14">
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+    </row>
+    <row r="96" spans="8:14">
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+    </row>
+    <row r="97" spans="8:14">
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+    </row>
+    <row r="98" spans="8:14">
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+    </row>
+    <row r="99" spans="8:14">
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+    </row>
+    <row r="100" spans="8:14">
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+    </row>
+    <row r="101" spans="8:14">
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+    </row>
+    <row r="102" spans="8:14">
+      <c r="H102"/>
+      <c r="I102"/>
+      <c r="J102"/>
+      <c r="K102"/>
+      <c r="L102"/>
+      <c r="M102"/>
+      <c r="N102"/>
+    </row>
+    <row r="103" spans="8:14">
+      <c r="H103"/>
+      <c r="I103"/>
+      <c r="J103"/>
+      <c r="K103"/>
+      <c r="L103"/>
+      <c r="M103"/>
+      <c r="N103"/>
+    </row>
+    <row r="104" spans="8:14">
+      <c r="H104"/>
+      <c r="I104"/>
+      <c r="J104"/>
+      <c r="K104"/>
+      <c r="L104"/>
+      <c r="M104"/>
+      <c r="N104"/>
+    </row>
+    <row r="105" spans="8:14">
+      <c r="H105"/>
+      <c r="I105"/>
+      <c r="J105"/>
+      <c r="K105"/>
+      <c r="L105"/>
+      <c r="M105"/>
+      <c r="N105"/>
+    </row>
+    <row r="106" spans="8:14">
+      <c r="H106"/>
+      <c r="I106"/>
+      <c r="J106"/>
+      <c r="K106"/>
+      <c r="L106"/>
+      <c r="M106"/>
+      <c r="N106"/>
+    </row>
+    <row r="107" spans="8:14">
+      <c r="H107"/>
+      <c r="I107"/>
+      <c r="J107"/>
+      <c r="K107"/>
+      <c r="L107"/>
+      <c r="M107"/>
+      <c r="N107"/>
+    </row>
+    <row r="108" spans="8:14">
+      <c r="H108"/>
+      <c r="I108"/>
+      <c r="J108"/>
+      <c r="K108"/>
+      <c r="L108"/>
+      <c r="M108"/>
+      <c r="N108"/>
+    </row>
+    <row r="109" spans="8:14">
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109"/>
+    </row>
+    <row r="110" spans="8:14">
+      <c r="H110"/>
+      <c r="I110"/>
+      <c r="J110"/>
+      <c r="K110"/>
+      <c r="L110"/>
+      <c r="M110"/>
+      <c r="N110"/>
+    </row>
+    <row r="111" spans="8:14">
+      <c r="H111"/>
+      <c r="I111"/>
+      <c r="J111"/>
+      <c r="K111"/>
+      <c r="L111"/>
+      <c r="M111"/>
+      <c r="N111"/>
+    </row>
+    <row r="112" spans="8:14">
+      <c r="H112"/>
+      <c r="I112"/>
+      <c r="J112"/>
+      <c r="K112"/>
+      <c r="L112"/>
+      <c r="M112"/>
+      <c r="N112"/>
+    </row>
+    <row r="113" spans="8:14">
+      <c r="H113"/>
+      <c r="I113"/>
+      <c r="J113"/>
+      <c r="K113"/>
+      <c r="L113"/>
+      <c r="M113"/>
+      <c r="N113"/>
+    </row>
+    <row r="114" spans="8:14">
+      <c r="H114"/>
+      <c r="I114"/>
+      <c r="J114"/>
+      <c r="K114"/>
+      <c r="L114"/>
+      <c r="M114"/>
+      <c r="N114"/>
+    </row>
+    <row r="115" spans="8:14">
+      <c r="H115"/>
+      <c r="I115"/>
+      <c r="J115"/>
+      <c r="K115"/>
+      <c r="L115"/>
+      <c r="M115"/>
+      <c r="N115"/>
+    </row>
+    <row r="116" spans="8:14">
+      <c r="H116"/>
+      <c r="I116"/>
+      <c r="J116"/>
+      <c r="K116"/>
+      <c r="L116"/>
+      <c r="M116"/>
+      <c r="N116"/>
+    </row>
+    <row r="117" spans="8:14">
+      <c r="H117"/>
+      <c r="I117"/>
+      <c r="J117"/>
+      <c r="K117"/>
+      <c r="L117"/>
+      <c r="M117"/>
+      <c r="N117"/>
+    </row>
+    <row r="118" spans="8:14">
+      <c r="H118"/>
+      <c r="I118"/>
+      <c r="J118"/>
+      <c r="K118"/>
+      <c r="L118"/>
+      <c r="M118"/>
+      <c r="N118"/>
+    </row>
+    <row r="119" spans="8:14">
+      <c r="H119"/>
+      <c r="I119"/>
+      <c r="J119"/>
+      <c r="K119"/>
+      <c r="L119"/>
+      <c r="M119"/>
+      <c r="N119"/>
+    </row>
+    <row r="120" spans="8:14">
+      <c r="H120"/>
+      <c r="I120"/>
+      <c r="J120"/>
+      <c r="K120"/>
+      <c r="L120"/>
+      <c r="M120"/>
+      <c r="N120"/>
+    </row>
+    <row r="121" spans="8:14">
+      <c r="H121"/>
+      <c r="I121"/>
+      <c r="J121"/>
+      <c r="K121"/>
+      <c r="L121"/>
+      <c r="M121"/>
+      <c r="N121"/>
+    </row>
+    <row r="122" spans="8:14">
+      <c r="H122"/>
+      <c r="I122"/>
+      <c r="J122"/>
+      <c r="K122"/>
+      <c r="L122"/>
+      <c r="M122"/>
+      <c r="N122"/>
+    </row>
+    <row r="123" spans="8:14">
+      <c r="H123"/>
+      <c r="I123"/>
+      <c r="J123"/>
+      <c r="K123"/>
+      <c r="L123"/>
+      <c r="M123"/>
+      <c r="N123"/>
+    </row>
+    <row r="124" spans="8:14">
+      <c r="H124"/>
+      <c r="I124"/>
+      <c r="J124"/>
+      <c r="K124"/>
+      <c r="L124"/>
+      <c r="M124"/>
+      <c r="N124"/>
+    </row>
+    <row r="125" spans="8:14">
+      <c r="H125"/>
+      <c r="I125"/>
+      <c r="J125"/>
+      <c r="K125"/>
+      <c r="L125"/>
+      <c r="M125"/>
+      <c r="N125"/>
+    </row>
+    <row r="126" spans="8:14">
+      <c r="H126"/>
+      <c r="I126"/>
+      <c r="J126"/>
+      <c r="K126"/>
+      <c r="L126"/>
+      <c r="M126"/>
+      <c r="N126"/>
+    </row>
+    <row r="127" spans="8:14">
+      <c r="H127"/>
+      <c r="I127"/>
+      <c r="J127"/>
+      <c r="K127"/>
+      <c r="L127"/>
+      <c r="M127"/>
+      <c r="N127"/>
+    </row>
+    <row r="128" spans="8:14">
+      <c r="H128"/>
+      <c r="I128"/>
+      <c r="J128"/>
+      <c r="K128"/>
+      <c r="L128"/>
+      <c r="M128"/>
+      <c r="N128"/>
+    </row>
+    <row r="129" spans="8:14">
+      <c r="H129"/>
+      <c r="I129"/>
+      <c r="J129"/>
+      <c r="K129"/>
+      <c r="L129"/>
+      <c r="M129"/>
+      <c r="N129"/>
+    </row>
+    <row r="130" spans="8:14">
+      <c r="H130"/>
+      <c r="I130"/>
+      <c r="J130"/>
+      <c r="K130"/>
+      <c r="L130"/>
+      <c r="M130"/>
+      <c r="N130"/>
+    </row>
+    <row r="131" spans="8:14">
+      <c r="H131"/>
+      <c r="I131"/>
+      <c r="J131"/>
+      <c r="K131"/>
+      <c r="L131"/>
+      <c r="M131"/>
+      <c r="N131"/>
+    </row>
+    <row r="132" spans="8:14">
+      <c r="H132"/>
+      <c r="I132"/>
+      <c r="J132"/>
+      <c r="K132"/>
+      <c r="L132"/>
+      <c r="M132"/>
+      <c r="N132"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="C32" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="15" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N132"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="75" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.625" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="59.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.25" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="6.625" style="21" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="14" customWidth="1"/>
+    <col min="15" max="15" width="8.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="16"/>
+      <c r="J1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="16"/>
+      <c r="L1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="10" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3"/>
+    </row>
+    <row r="4" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="2"/>
+      <c r="N4"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="2"/>
+      <c r="N5"/>
+    </row>
+    <row r="6" spans="1:14" ht="18.75">
+      <c r="A6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6"/>
+    </row>
+    <row r="7" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="2"/>
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="2"/>
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="2"/>
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="55"/>
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="2"/>
+      <c r="N11"/>
+    </row>
+    <row r="12" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="2"/>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="N13"/>
+    </row>
+    <row r="14" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="2"/>
+      <c r="N14"/>
+    </row>
+    <row r="15" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="2"/>
+      <c r="N15"/>
+    </row>
+    <row r="16" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="2"/>
+      <c r="N16"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="2"/>
+      <c r="N17"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="2"/>
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="2"/>
+      <c r="N19"/>
+    </row>
+    <row r="20" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="2"/>
+      <c r="N20"/>
+    </row>
+    <row r="21" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="2"/>
+      <c r="N21"/>
+    </row>
+    <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="2"/>
+      <c r="N22"/>
+    </row>
+    <row r="23" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="2"/>
+      <c r="N23"/>
+    </row>
+    <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="2"/>
+      <c r="N24"/>
+    </row>
+    <row r="25" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="2"/>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+    </row>
+    <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+    </row>
+    <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+    </row>
+    <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+    </row>
+    <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="1:14" ht="35.1" customHeight="1">
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+    </row>
+    <row r="33" spans="8:14" ht="20.100000000000001" customHeight="1">
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+    </row>
+    <row r="34" spans="8:14" ht="20.100000000000001" customHeight="1">
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+    </row>
+    <row r="35" spans="8:14" ht="20.100000000000001" customHeight="1">
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+    </row>
+    <row r="36" spans="8:14" ht="20.100000000000001" customHeight="1">
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+    </row>
+    <row r="37" spans="8:14" ht="20.100000000000001" customHeight="1">
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+    </row>
+    <row r="38" spans="8:14" ht="20.100000000000001" customHeight="1">
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+    </row>
+    <row r="39" spans="8:14" ht="20.100000000000001" customHeight="1">
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+    </row>
+    <row r="40" spans="8:14" ht="20.100000000000001" customHeight="1">
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+    </row>
+    <row r="41" spans="8:14" ht="20.100000000000001" customHeight="1">
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+    </row>
+    <row r="42" spans="8:14" ht="20.100000000000001" customHeight="1">
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+    </row>
+    <row r="43" spans="8:14" ht="20.100000000000001" customHeight="1">
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+    </row>
+    <row r="44" spans="8:14" ht="20.100000000000001" customHeight="1">
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+    </row>
+    <row r="45" spans="8:14" ht="20.100000000000001" customHeight="1">
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+    </row>
+    <row r="46" spans="8:14" ht="20.100000000000001" customHeight="1">
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+    </row>
+    <row r="47" spans="8:14" ht="20.100000000000001" customHeight="1">
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+    </row>
+    <row r="48" spans="8:14" ht="20.100000000000001" customHeight="1">
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+    </row>
+    <row r="49" spans="8:14" ht="20.100000000000001" customHeight="1">
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+    </row>
+    <row r="50" spans="8:14" ht="20.100000000000001" customHeight="1">
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+    </row>
+    <row r="51" spans="8:14" ht="20.100000000000001" customHeight="1">
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+      <c r="L51"/>
+      <c r="M51"/>
+      <c r="N51"/>
+    </row>
+    <row r="52" spans="8:14" ht="20.100000000000001" customHeight="1">
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+    </row>
+    <row r="53" spans="8:14" ht="20.100000000000001" customHeight="1">
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+    </row>
+    <row r="54" spans="8:14" ht="20.100000000000001" customHeight="1">
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+    </row>
+    <row r="55" spans="8:14" ht="20.100000000000001" customHeight="1">
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+    </row>
+    <row r="56" spans="8:14" ht="20.100000000000001" customHeight="1">
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+    </row>
+    <row r="57" spans="8:14">
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+    </row>
+    <row r="58" spans="8:14">
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+    </row>
+    <row r="59" spans="8:14">
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+    </row>
+    <row r="60" spans="8:14">
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+    </row>
+    <row r="61" spans="8:14">
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+    </row>
+    <row r="62" spans="8:14">
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
+      <c r="M62"/>
+      <c r="N62"/>
+    </row>
+    <row r="63" spans="8:14">
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+    </row>
+    <row r="64" spans="8:14">
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+    </row>
+    <row r="65" spans="8:14">
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+    </row>
+    <row r="66" spans="8:14">
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+    </row>
+    <row r="67" spans="8:14">
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+    </row>
+    <row r="68" spans="8:14">
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+    </row>
+    <row r="69" spans="8:14">
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+    </row>
+    <row r="70" spans="8:14">
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+    </row>
+    <row r="71" spans="8:14">
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+    </row>
+    <row r="72" spans="8:14">
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+    </row>
+    <row r="73" spans="8:14">
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+    </row>
+    <row r="74" spans="8:14">
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+    </row>
+    <row r="75" spans="8:14">
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+      <c r="L75"/>
+      <c r="M75"/>
+      <c r="N75"/>
+    </row>
+    <row r="76" spans="8:14">
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
+      <c r="N76"/>
+    </row>
+    <row r="77" spans="8:14">
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
+      <c r="N77"/>
+    </row>
+    <row r="78" spans="8:14">
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
+      <c r="N78"/>
+    </row>
+    <row r="79" spans="8:14">
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
+      <c r="N79"/>
+    </row>
+    <row r="80" spans="8:14">
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+      <c r="L80"/>
+      <c r="M80"/>
+      <c r="N80"/>
+    </row>
+    <row r="81" spans="8:14">
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+      <c r="L81"/>
+      <c r="M81"/>
+      <c r="N81"/>
+    </row>
+    <row r="82" spans="8:14">
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+      <c r="L82"/>
+      <c r="M82"/>
+      <c r="N82"/>
+    </row>
+    <row r="83" spans="8:14">
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+      <c r="L83"/>
+      <c r="M83"/>
+      <c r="N83"/>
+    </row>
+    <row r="84" spans="8:14">
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+      <c r="K84"/>
+      <c r="L84"/>
+      <c r="M84"/>
+      <c r="N84"/>
+    </row>
+    <row r="85" spans="8:14">
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+      <c r="K85"/>
+      <c r="L85"/>
+      <c r="M85"/>
+      <c r="N85"/>
+    </row>
+    <row r="86" spans="8:14">
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+    </row>
+    <row r="87" spans="8:14">
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+    </row>
+    <row r="88" spans="8:14">
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+      <c r="L88"/>
+      <c r="M88"/>
+      <c r="N88"/>
+    </row>
+    <row r="89" spans="8:14">
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+      <c r="L89"/>
+      <c r="M89"/>
+      <c r="N89"/>
+    </row>
+    <row r="90" spans="8:14">
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+    </row>
+    <row r="91" spans="8:14">
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+    </row>
+    <row r="92" spans="8:14">
+      <c r="H92"/>
+      <c r="I92"/>
+      <c r="J92"/>
+      <c r="K92"/>
+      <c r="L92"/>
+      <c r="M92"/>
+      <c r="N92"/>
+    </row>
+    <row r="93" spans="8:14">
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93"/>
+      <c r="K93"/>
+      <c r="L93"/>
+      <c r="M93"/>
+      <c r="N93"/>
+    </row>
+    <row r="94" spans="8:14">
+      <c r="H94"/>
+      <c r="I94"/>
+      <c r="J94"/>
+      <c r="K94"/>
+      <c r="L94"/>
+      <c r="M94"/>
+      <c r="N94"/>
+    </row>
+    <row r="95" spans="8:14">
+      <c r="H95"/>
+      <c r="I95"/>
+      <c r="J95"/>
+      <c r="K95"/>
+      <c r="L95"/>
+      <c r="M95"/>
+      <c r="N95"/>
+    </row>
+    <row r="96" spans="8:14">
+      <c r="H96"/>
+      <c r="I96"/>
+      <c r="J96"/>
+      <c r="K96"/>
+      <c r="L96"/>
+      <c r="M96"/>
+      <c r="N96"/>
+    </row>
+    <row r="97" spans="8:14">
+      <c r="H97"/>
+      <c r="I97"/>
+      <c r="J97"/>
+      <c r="K97"/>
+      <c r="L97"/>
+      <c r="M97"/>
+      <c r="N97"/>
+    </row>
+    <row r="98" spans="8:14">
+      <c r="H98"/>
+      <c r="I98"/>
+      <c r="J98"/>
+      <c r="K98"/>
+      <c r="L98"/>
+      <c r="M98"/>
+      <c r="N98"/>
+    </row>
+    <row r="99" spans="8:14">
+      <c r="H99"/>
+      <c r="I99"/>
+      <c r="J99"/>
+      <c r="K99"/>
+      <c r="L99"/>
+      <c r="M99"/>
+      <c r="N99"/>
+    </row>
+    <row r="100" spans="8:14">
+      <c r="H100"/>
+      <c r="I100"/>
+      <c r="J100"/>
+      <c r="K100"/>
+      <c r="L100"/>
+      <c r="M100"/>
+      <c r="N100"/>
+    </row>
+    <row r="101" spans="8:14">
+      <c r="H101"/>
+      <c r="I101"/>
+      <c r="J101"/>
+      <c r="K101"/>
+      <c r="L101"/>
+      <c r="M101"/>
+      <c r="N101"/>
+    </row>
+    <row r="102" spans="8:14">
+      <c r="N102"/>
+    </row>
+    <row r="103" spans="8:14">
+      <c r="N103"/>
+    </row>
+    <row r="104" spans="8:14">
+      <c r="N104"/>
+    </row>
+    <row r="105" spans="8:14">
+      <c r="N105"/>
+    </row>
+    <row r="106" spans="8:14">
+      <c r="N106"/>
+    </row>
+    <row r="107" spans="8:14">
+      <c r="N107"/>
+    </row>
+    <row r="108" spans="8:14">
+      <c r="N108"/>
+    </row>
+    <row r="109" spans="8:14">
+      <c r="N109"/>
+    </row>
+    <row r="110" spans="8:14">
+      <c r="N110"/>
+    </row>
+    <row r="111" spans="8:14">
+      <c r="N111"/>
+    </row>
+    <row r="112" spans="8:14">
+      <c r="N112"/>
+    </row>
+    <row r="113" spans="14:14">
+      <c r="N113"/>
+    </row>
+    <row r="114" spans="14:14">
+      <c r="N114"/>
+    </row>
+    <row r="115" spans="14:14">
+      <c r="N115"/>
+    </row>
+    <row r="116" spans="14:14">
+      <c r="N116"/>
+    </row>
+    <row r="117" spans="14:14">
+      <c r="N117"/>
+    </row>
+    <row r="118" spans="14:14">
+      <c r="N118"/>
+    </row>
+    <row r="119" spans="14:14">
+      <c r="N119"/>
+    </row>
+    <row r="120" spans="14:14">
+      <c r="N120"/>
+    </row>
+    <row r="121" spans="14:14">
+      <c r="N121"/>
+    </row>
+    <row r="122" spans="14:14">
+      <c r="N122"/>
+    </row>
+    <row r="123" spans="14:14">
+      <c r="N123"/>
+    </row>
+    <row r="124" spans="14:14">
+      <c r="N124"/>
+    </row>
+    <row r="125" spans="14:14">
+      <c r="N125"/>
+    </row>
+    <row r="126" spans="14:14">
+      <c r="N126"/>
+    </row>
+    <row r="127" spans="14:14">
+      <c r="N127"/>
+    </row>
+    <row r="128" spans="14:14">
+      <c r="N128"/>
+    </row>
+    <row r="129" spans="14:14">
+      <c r="N129"/>
+    </row>
+    <row r="130" spans="14:14">
+      <c r="N130"/>
+    </row>
+    <row r="131" spans="14:14">
+      <c r="N131"/>
+    </row>
+    <row r="132" spans="14:14">
+      <c r="N132"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="15" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF92D050"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -7967,15 +12124,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="44" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A1" s="66">
+      <c r="A1" s="67">
         <v>43862</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:7" s="40" customFormat="1" ht="32.1" customHeight="1" thickTop="1">
       <c r="A2" s="43" t="s">
@@ -8105,15 +12262,15 @@
     </row>
     <row r="8" spans="1:7" ht="14.25" thickTop="1"/>
     <row r="9" spans="1:7" s="44" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A9" s="66">
+      <c r="A9" s="67">
         <v>43891</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
     </row>
     <row r="10" spans="1:7" s="40" customFormat="1" ht="32.1" customHeight="1" thickTop="1">
       <c r="A10" s="43" t="s">
@@ -8247,15 +12404,15 @@
     </row>
     <row r="16" spans="1:7" ht="14.25" thickTop="1"/>
     <row r="17" spans="1:7" s="44" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A17" s="66">
+      <c r="A17" s="67">
         <v>43922</v>
       </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
     </row>
     <row r="18" spans="1:7" s="40" customFormat="1" ht="32.1" customHeight="1" thickTop="1">
       <c r="A18" s="43" t="s">
@@ -8322,7 +12479,7 @@
     </row>
     <row r="21" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
       <c r="A21" s="63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B21" s="38">
         <v>13</v>
@@ -8367,8 +12524,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1" thickBot="1">
-      <c r="A23" s="68" t="s">
-        <v>139</v>
+      <c r="A23" s="66" t="s">
+        <v>137</v>
       </c>
       <c r="B23" s="32">
         <v>27</v>
@@ -8385,160 +12542,282 @@
       <c r="F23" s="45"/>
       <c r="G23" s="31"/>
     </row>
-    <row r="24" spans="1:7" ht="14.25" thickTop="1"/>
-    <row r="25" spans="1:7" s="44" customFormat="1" ht="32.1" customHeight="1" thickBot="1">
-      <c r="A25" s="66">
+    <row r="24" spans="1:7" ht="14.25" thickTop="1">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" spans="1:7" s="44" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A25" s="67">
         <v>43952</v>
       </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-    </row>
-    <row r="26" spans="1:7" s="40" customFormat="1" ht="32.1" customHeight="1" thickTop="1">
-      <c r="A26" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="41" t="s">
-        <v>18</v>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+    </row>
+    <row r="26" spans="1:7" s="40" customFormat="1" ht="63.95" customHeight="1">
+      <c r="A26" s="39"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38">
+        <v>1</v>
+      </c>
+      <c r="D26" s="38">
+        <v>2</v>
+      </c>
+      <c r="E26" s="38">
+        <v>3</v>
+      </c>
+      <c r="F26" s="38">
+        <v>4</v>
+      </c>
+      <c r="G26" s="37">
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
-      <c r="A27" s="39"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
+      <c r="A27" s="63">
+        <v>6</v>
+      </c>
+      <c r="B27" s="38">
+        <v>7</v>
+      </c>
+      <c r="C27" s="38">
+        <v>8</v>
+      </c>
+      <c r="D27" s="38">
+        <v>9</v>
+      </c>
+      <c r="E27" s="48">
+        <v>10</v>
+      </c>
       <c r="F27" s="38">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G27" s="37">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
       <c r="A28" s="63" t="s">
-        <v>140</v>
+        <v>262</v>
       </c>
       <c r="B28" s="38">
+        <v>14</v>
+      </c>
+      <c r="C28" s="38">
+        <v>15</v>
+      </c>
+      <c r="D28" s="38">
+        <v>16</v>
+      </c>
+      <c r="E28" s="38">
+        <v>17</v>
+      </c>
+      <c r="F28" s="38">
+        <v>18</v>
+      </c>
+      <c r="G28" s="37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
+      <c r="A29" s="63">
+        <v>20</v>
+      </c>
+      <c r="B29" s="38">
+        <v>21</v>
+      </c>
+      <c r="C29" s="38">
+        <v>22</v>
+      </c>
+      <c r="D29" s="38">
+        <v>23</v>
+      </c>
+      <c r="E29" s="38">
+        <v>24</v>
+      </c>
+      <c r="F29" s="38">
+        <v>25</v>
+      </c>
+      <c r="G29" s="37">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
+      <c r="A30" s="36">
+        <v>27</v>
+      </c>
+      <c r="B30" s="35">
+        <v>28</v>
+      </c>
+      <c r="C30" s="35">
+        <v>29</v>
+      </c>
+      <c r="D30" s="35">
+        <v>30</v>
+      </c>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="34"/>
+    </row>
+    <row r="31" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1" thickBot="1">
+      <c r="A31" s="33"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="31"/>
+    </row>
+    <row r="32" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A32" s="67">
+        <v>43983</v>
+      </c>
+      <c r="B32" s="68"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+    </row>
+    <row r="33" spans="1:7" ht="63.95" customHeight="1" thickTop="1">
+      <c r="A33" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="41" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="63.95" customHeight="1">
+      <c r="A34" s="39"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38">
+        <v>1</v>
+      </c>
+      <c r="E34" s="38">
+        <v>2</v>
+      </c>
+      <c r="F34" s="48">
+        <v>3</v>
+      </c>
+      <c r="G34" s="37">
         <v>4</v>
       </c>
-      <c r="C28" s="38">
+    </row>
+    <row r="35" spans="1:7" ht="63.95" customHeight="1">
+      <c r="A35" s="39">
         <v>5</v>
       </c>
-      <c r="D28" s="38">
+      <c r="B35" s="47">
         <v>6</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="C35" s="38">
+        <v>7</v>
+      </c>
+      <c r="D35" s="38">
+        <v>8</v>
+      </c>
+      <c r="E35" s="38">
+        <v>9</v>
+      </c>
+      <c r="F35" s="38">
+        <v>10</v>
+      </c>
+      <c r="G35" s="37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="63.95" customHeight="1">
+      <c r="A36" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="38">
-        <v>8</v>
-      </c>
-      <c r="G28" s="37">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
-      <c r="A29" s="39">
-        <v>10</v>
-      </c>
-      <c r="B29" s="38">
-        <v>11</v>
-      </c>
-      <c r="C29" s="38">
-        <v>12</v>
-      </c>
-      <c r="D29" s="38">
+      <c r="B36" s="38">
         <v>13</v>
       </c>
-      <c r="E29" s="38">
+      <c r="C36" s="38">
         <v>14</v>
       </c>
-      <c r="F29" s="38">
+      <c r="D36" s="38">
         <v>15</v>
       </c>
-      <c r="G29" s="37">
+      <c r="E36" s="38">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
-      <c r="A30" s="63" t="s">
-        <v>138</v>
-      </c>
-      <c r="B30" s="38">
+      <c r="F36" s="38">
+        <v>17</v>
+      </c>
+      <c r="G36" s="37">
         <v>18</v>
       </c>
-      <c r="C30" s="38">
+    </row>
+    <row r="37" spans="1:7" ht="63.95" customHeight="1">
+      <c r="A37" s="39">
         <v>19</v>
       </c>
-      <c r="D30" s="38">
+      <c r="B37" s="38">
         <v>20</v>
       </c>
-      <c r="E30" s="38">
+      <c r="C37" s="38">
         <v>21</v>
       </c>
-      <c r="F30" s="38">
+      <c r="D37" s="38">
         <v>22</v>
       </c>
-      <c r="G30" s="37">
+      <c r="E37" s="38">
         <v>23</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1">
-      <c r="A31" s="36">
+      <c r="F37" s="38">
         <v>24</v>
       </c>
-      <c r="B31" s="35">
+      <c r="G37" s="37">
         <v>25</v>
       </c>
-      <c r="C31" s="35">
-        <v>26</v>
-      </c>
-      <c r="D31" s="35">
+    </row>
+    <row r="38" spans="1:7" ht="63.95" customHeight="1" thickBot="1">
+      <c r="A38" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="32">
         <v>27</v>
       </c>
-      <c r="E31" s="35">
+      <c r="C38" s="32">
         <v>28</v>
       </c>
-      <c r="F31" s="35">
+      <c r="D38" s="46">
         <v>29</v>
       </c>
-      <c r="G31" s="34">
+      <c r="E38" s="32">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" s="30" customFormat="1" ht="63.95" customHeight="1" thickBot="1">
-      <c r="A32" s="33">
-        <v>31</v>
-      </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="31"/>
-    </row>
-    <row r="33" ht="63.95" customHeight="1" thickTop="1"/>
+      <c r="F38" s="45"/>
+      <c r="G38" s="31"/>
+    </row>
+    <row r="39" spans="1:7" ht="14.25" thickTop="1"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="A32:G32"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A9:G9"/>
     <mergeCell ref="A17:G17"/>
@@ -8550,7 +12829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
